--- a/OptimalizationLabs1/proj5_Izworski_Jarek_Klimczyk.xlsx
+++ b/OptimalizationLabs1/proj5_Izworski_Jarek_Klimczyk.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3AE0F2-23D8-4D4A-B0B1-4743FBD6D00D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8838041-2EFD-49B7-B28A-50D9654FE73C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="1305" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>-9.8604599999999998</v>
+        <v>8.19163</v>
       </c>
       <c r="C3" s="21">
-        <v>5.0185899999999997</v>
+        <v>-4.9180299999999999</v>
       </c>
       <c r="D3" s="4">
         <v>-5</v>
@@ -1284,10 +1284,10 @@
         <v>200</v>
       </c>
       <c r="G3" s="26">
-        <v>4.4624900000000003E-12</v>
+        <v>3.8189799999999997E-13</v>
       </c>
       <c r="H3" s="21">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="I3" s="4">
         <v>-5</v>
@@ -1299,10 +1299,10 @@
         <v>2000</v>
       </c>
       <c r="L3" s="26">
-        <v>4.4624900000000002E-13</v>
+        <v>3.8189799999999997E-14</v>
       </c>
       <c r="M3" s="3">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="N3" s="30">
         <v>-5</v>
@@ -1314,10 +1314,10 @@
         <v>20000</v>
       </c>
       <c r="Q3" s="26">
-        <v>4.4624899999999998E-14</v>
+        <v>3.8189800000000004E-15</v>
       </c>
       <c r="R3" s="3">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1325,55 +1325,55 @@
         <v>0.01</v>
       </c>
       <c r="B4" s="5">
-        <v>5.73102</v>
+        <v>9.7790099999999995</v>
       </c>
       <c r="C4" s="22">
-        <v>-9.4669899999999991</v>
+        <v>8.7449200000000005</v>
       </c>
       <c r="D4" s="5">
-        <v>-4.8999600000000001</v>
+        <v>-4.8999899999999998</v>
       </c>
       <c r="E4" s="24">
-        <v>-4.90036</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="F4" s="24">
-        <v>196.02600000000001</v>
+        <v>196.02</v>
       </c>
       <c r="G4" s="24">
-        <v>1.9936200000000001E-2</v>
+        <v>2.0001000000000001E-2</v>
       </c>
       <c r="H4" s="22">
-        <v>506</v>
+        <v>165</v>
       </c>
       <c r="I4" s="5">
-        <v>2.5506399999999999E-2</v>
+        <v>2.5124199999999999E-2</v>
       </c>
       <c r="J4" s="24">
-        <v>1.87277E-2</v>
+        <v>2.5126900000000001E-2</v>
       </c>
       <c r="K4" s="24">
-        <v>495.58699999999999</v>
+        <v>494.988</v>
       </c>
       <c r="L4" s="24">
-        <v>5.0443300000000004</v>
+        <v>5.0503799999999996</v>
       </c>
       <c r="M4" s="1">
-        <v>376</v>
+        <v>280</v>
       </c>
       <c r="N4" s="31">
-        <v>4.9020200000000003</v>
+        <v>4.90198</v>
       </c>
       <c r="O4" s="24">
-        <v>4.9008799999999999</v>
+        <v>4.9019700000000004</v>
       </c>
       <c r="P4" s="24">
-        <v>1.9426399999999999</v>
+        <v>1.92177</v>
       </c>
       <c r="Q4" s="24">
-        <v>1.9607699999999999</v>
+        <v>1.9609799999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>409</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1381,10 +1381,10 @@
         <v>0.02</v>
       </c>
       <c r="B5" s="5">
-        <v>-0.63638399999999995</v>
+        <v>9.2598400000000005</v>
       </c>
       <c r="C5" s="22">
-        <v>-6.9296499999999996</v>
+        <v>-3.4829400000000001</v>
       </c>
       <c r="D5" s="5">
         <v>-4.8</v>
@@ -1396,40 +1396,40 @@
         <v>192.08</v>
       </c>
       <c r="G5" s="24">
-        <v>7.9999600000000004E-2</v>
+        <v>8.0001299999999997E-2</v>
       </c>
       <c r="H5" s="22">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="I5" s="5">
-        <v>1.7114100000000001</v>
+        <v>1.7114</v>
       </c>
       <c r="J5" s="24">
         <v>1.7114100000000001</v>
       </c>
       <c r="K5" s="24">
-        <v>216.29599999999999</v>
+        <v>216.297</v>
       </c>
       <c r="L5" s="24">
-        <v>9.0086099999999991</v>
+        <v>9.0085899999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="N5" s="31">
-        <v>4.9512499999999999</v>
+        <v>4.9512400000000003</v>
       </c>
       <c r="O5" s="24">
         <v>4.9512400000000003</v>
       </c>
       <c r="P5" s="24">
-        <v>0.475412</v>
+        <v>0.47553200000000001</v>
       </c>
       <c r="Q5" s="24">
-        <v>1.98055</v>
+        <v>1.98054</v>
       </c>
       <c r="R5" s="1">
-        <v>306</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1437,31 +1437,31 @@
         <v>0.03</v>
       </c>
       <c r="B6" s="5">
-        <v>8.8863400000000006</v>
+        <v>4.3833399999999996</v>
       </c>
       <c r="C6" s="22">
-        <v>5.6259199999999998</v>
+        <v>0.572905</v>
       </c>
       <c r="D6" s="5">
-        <v>-4.7000099999999998</v>
+        <v>-4.7</v>
       </c>
       <c r="E6" s="24">
-        <v>-4.6999899999999997</v>
+        <v>-4.7</v>
       </c>
       <c r="F6" s="24">
         <v>188.18</v>
       </c>
       <c r="G6" s="24">
-        <v>0.17999699999999999</v>
+        <v>0.18</v>
       </c>
       <c r="H6" s="22">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="I6" s="5">
+        <v>2.5566800000000001</v>
+      </c>
+      <c r="J6" s="24">
         <v>2.55667</v>
-      </c>
-      <c r="J6" s="24">
-        <v>2.5566800000000001</v>
       </c>
       <c r="K6" s="24">
         <v>119.39700000000001</v>
@@ -1470,7 +1470,7 @@
         <v>11.4207</v>
       </c>
       <c r="M6" s="1">
-        <v>307</v>
+        <v>169</v>
       </c>
       <c r="N6" s="31">
         <v>4.9677699999999998</v>
@@ -1479,13 +1479,13 @@
         <v>4.9677699999999998</v>
       </c>
       <c r="P6" s="24">
-        <v>0.207736</v>
+        <v>0.207759</v>
       </c>
       <c r="Q6" s="24">
         <v>1.9871300000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1493,13 +1493,13 @@
         <v>0.04</v>
       </c>
       <c r="B7" s="5">
-        <v>9.0717300000000005</v>
+        <v>-0.63925900000000002</v>
       </c>
       <c r="C7" s="22">
-        <v>6.64778</v>
+        <v>6.0544000000000002</v>
       </c>
       <c r="D7" s="5">
-        <v>-4.6000100000000002</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="E7" s="24">
         <v>-4.5999999999999996</v>
@@ -1508,40 +1508,40 @@
         <v>184.32</v>
       </c>
       <c r="G7" s="24">
-        <v>0.31999</v>
+        <v>0.32000099999999998</v>
       </c>
       <c r="H7" s="22">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="I7" s="5">
-        <v>3.0645099999999998</v>
+        <v>3.0645199999999999</v>
       </c>
       <c r="J7" s="24">
         <v>3.0645199999999999</v>
       </c>
       <c r="K7" s="24">
-        <v>74.921999999999997</v>
+        <v>74.921899999999994</v>
       </c>
       <c r="L7" s="24">
         <v>13.007300000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="N7" s="31">
-        <v>4.9760499999999999</v>
+        <v>4.9760600000000004</v>
       </c>
       <c r="O7" s="24">
         <v>4.9760600000000004</v>
       </c>
       <c r="P7" s="24">
-        <v>0.11466999999999999</v>
+        <v>0.114649</v>
       </c>
       <c r="Q7" s="24">
         <v>1.9904299999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>165</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1549,10 +1549,10 @@
         <v>0.05</v>
       </c>
       <c r="B8" s="5">
-        <v>-1.50214</v>
+        <v>8.0738800000000008</v>
       </c>
       <c r="C8" s="22">
-        <v>0.75122500000000003</v>
+        <v>-5.9848499999999998</v>
       </c>
       <c r="D8" s="5">
         <v>-4.5</v>
@@ -1564,25 +1564,25 @@
         <v>180.5</v>
       </c>
       <c r="G8" s="24">
-        <v>0.49999300000000002</v>
+        <v>0.49998999999999999</v>
       </c>
       <c r="H8" s="22">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="I8" s="5">
-        <v>3.4033600000000002</v>
+        <v>3.4033500000000001</v>
       </c>
       <c r="J8" s="24">
-        <v>3.4033600000000002</v>
+        <v>3.4033699999999998</v>
       </c>
       <c r="K8" s="24">
-        <v>50.985100000000003</v>
+        <v>50.985199999999999</v>
       </c>
       <c r="L8" s="24">
         <v>14.1233</v>
       </c>
       <c r="M8" s="1">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="N8" s="31">
         <v>4.9810400000000001</v>
@@ -1591,13 +1591,13 @@
         <v>4.9810400000000001</v>
       </c>
       <c r="P8" s="24">
-        <v>7.1907799999999994E-2</v>
+        <v>7.19302E-2</v>
       </c>
       <c r="Q8" s="24">
         <v>1.9924200000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>163</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1605,25 +1605,25 @@
         <v>0.06</v>
       </c>
       <c r="B9" s="5">
-        <v>-3.22879</v>
+        <v>8.6972299999999994</v>
       </c>
       <c r="C9" s="22">
-        <v>-9.7994199999999996</v>
+        <v>-9.3183399999999992</v>
       </c>
       <c r="D9" s="5">
-        <v>-4.3996599999999999</v>
+        <v>-4.4000199999999996</v>
       </c>
       <c r="E9" s="24">
-        <v>-4.4075199999999999</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="F9" s="24">
-        <v>176.85499999999999</v>
+        <v>176.72</v>
       </c>
       <c r="G9" s="24">
-        <v>0.71144099999999999</v>
+        <v>0.71997999999999995</v>
       </c>
       <c r="H9" s="22">
-        <v>402</v>
+        <v>165</v>
       </c>
       <c r="I9" s="5">
         <v>3.6455299999999999</v>
@@ -1638,7 +1638,7 @@
         <v>14.949</v>
       </c>
       <c r="M9" s="1">
-        <v>472</v>
+        <v>165</v>
       </c>
       <c r="N9" s="31">
         <v>4.9843599999999997</v>
@@ -1647,13 +1647,13 @@
         <v>4.9843599999999997</v>
       </c>
       <c r="P9" s="24">
-        <v>4.8927199999999997E-2</v>
+        <v>4.8925400000000001E-2</v>
       </c>
       <c r="Q9" s="24">
         <v>1.9937499999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>469</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1661,13 +1661,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B10" s="5">
-        <v>5.7265899999999998</v>
+        <v>-0.87852200000000003</v>
       </c>
       <c r="C10" s="22">
-        <v>-0.36703000000000002</v>
+        <v>-5.5724099999999996</v>
       </c>
       <c r="D10" s="5">
-        <v>-4.2999900000000002</v>
+        <v>-4.3</v>
       </c>
       <c r="E10" s="24">
         <v>-4.3</v>
@@ -1676,25 +1676,25 @@
         <v>172.98</v>
       </c>
       <c r="G10" s="24">
-        <v>0.98002100000000003</v>
+        <v>0.98</v>
       </c>
       <c r="H10" s="22">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="I10" s="5">
         <v>3.8272400000000002</v>
       </c>
       <c r="J10" s="24">
-        <v>3.8272300000000001</v>
+        <v>3.8272400000000002</v>
       </c>
       <c r="K10" s="24">
-        <v>27.5075</v>
+        <v>27.507300000000001</v>
       </c>
       <c r="L10" s="24">
         <v>15.584</v>
       </c>
       <c r="M10" s="1">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="N10" s="31">
         <v>4.9867299999999997</v>
@@ -1703,13 +1703,13 @@
         <v>4.9867299999999997</v>
       </c>
       <c r="P10" s="24">
-        <v>3.5214500000000003E-2</v>
+        <v>3.5207099999999998E-2</v>
       </c>
       <c r="Q10" s="24">
         <v>1.9946999999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>163</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1717,10 +1717,10 @@
         <v>0.08</v>
       </c>
       <c r="B11" s="5">
-        <v>-8.3105899999999995</v>
+        <v>7.7544599999999999</v>
       </c>
       <c r="C11" s="22">
-        <v>5.8091999999999997</v>
+        <v>-6.4526899999999996</v>
       </c>
       <c r="D11" s="5">
         <v>-4.2</v>
@@ -1735,7 +1735,7 @@
         <v>1.28</v>
       </c>
       <c r="H11" s="22">
-        <v>302</v>
+        <v>165</v>
       </c>
       <c r="I11" s="5">
         <v>3.96861</v>
@@ -1744,28 +1744,28 @@
         <v>3.96861</v>
       </c>
       <c r="K11" s="24">
-        <v>21.275200000000002</v>
+        <v>21.275300000000001</v>
       </c>
       <c r="L11" s="24">
         <v>16.087199999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>409</v>
+        <v>281</v>
       </c>
       <c r="N11" s="31">
-        <v>4.9885200000000003</v>
+        <v>4.9885099999999998</v>
       </c>
       <c r="O11" s="24">
         <v>4.9885099999999998</v>
       </c>
       <c r="P11" s="24">
-        <v>2.6387799999999999E-2</v>
+        <v>2.6385499999999999E-2</v>
       </c>
       <c r="Q11" s="24">
         <v>1.9954099999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1773,10 +1773,10 @@
         <v>0.09</v>
       </c>
       <c r="B12" s="5">
-        <v>-0.74155700000000002</v>
+        <v>-3.3522099999999999</v>
       </c>
       <c r="C12" s="22">
-        <v>4.7961999999999998</v>
+        <v>-3.0885899999999999</v>
       </c>
       <c r="D12" s="5">
         <v>-4.0999999999999996</v>
@@ -1791,22 +1791,22 @@
         <v>1.62</v>
       </c>
       <c r="H12" s="22">
-        <v>302</v>
+        <v>171</v>
       </c>
       <c r="I12" s="5">
         <v>4.0817399999999999</v>
       </c>
       <c r="J12" s="24">
-        <v>4.0817399999999999</v>
+        <v>4.0817300000000003</v>
       </c>
       <c r="K12" s="24">
-        <v>16.8642</v>
+        <v>16.864100000000001</v>
       </c>
       <c r="L12" s="24">
         <v>16.4956</v>
       </c>
       <c r="M12" s="1">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="N12" s="31">
         <v>4.9898999999999996</v>
@@ -1815,13 +1815,13 @@
         <v>4.9898999999999996</v>
       </c>
       <c r="P12" s="24">
-        <v>2.03997E-2</v>
+        <v>2.0405699999999999E-2</v>
       </c>
       <c r="Q12" s="24">
         <v>1.99596</v>
       </c>
       <c r="R12" s="1">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -1829,13 +1829,13 @@
         <v>0.1</v>
       </c>
       <c r="B13" s="5">
-        <v>1.8358099999999999</v>
+        <v>-9.8519600000000001</v>
       </c>
       <c r="C13" s="22">
-        <v>-5.1554900000000004</v>
+        <v>8.3483199999999993</v>
       </c>
       <c r="D13" s="5">
-        <v>-4</v>
+        <v>-3.9999899999999999</v>
       </c>
       <c r="E13" s="24">
         <v>-4</v>
@@ -1844,25 +1844,25 @@
         <v>162</v>
       </c>
       <c r="G13" s="24">
-        <v>2.0000100000000001</v>
+        <v>2</v>
       </c>
       <c r="H13" s="22">
-        <v>267</v>
+        <v>165</v>
       </c>
       <c r="I13" s="5">
-        <v>4.1743100000000002</v>
+        <v>4.1743300000000003</v>
       </c>
       <c r="J13" s="24">
         <v>4.1743100000000002</v>
       </c>
       <c r="K13" s="24">
-        <v>13.635199999999999</v>
+        <v>13.635</v>
       </c>
       <c r="L13" s="24">
         <v>16.833600000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>304</v>
+        <v>165</v>
       </c>
       <c r="N13" s="31">
         <v>4.9910100000000002</v>
@@ -1871,13 +1871,13 @@
         <v>4.9910100000000002</v>
       </c>
       <c r="P13" s="24">
-        <v>1.6168200000000001E-2</v>
+        <v>1.6177199999999999E-2</v>
       </c>
       <c r="Q13" s="24">
-        <v>1.99641</v>
+        <v>1.9964</v>
       </c>
       <c r="R13" s="1">
-        <v>302</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -1885,13 +1885,13 @@
         <v>0.11</v>
       </c>
       <c r="B14" s="5">
-        <v>-2.8551299999999999</v>
+        <v>-9.0266400000000004</v>
       </c>
       <c r="C14" s="22">
-        <v>-6.34396</v>
+        <v>-2.2046999999999999</v>
       </c>
       <c r="D14" s="5">
-        <v>-3.9</v>
+        <v>-3.90001</v>
       </c>
       <c r="E14" s="24">
         <v>-3.9</v>
@@ -1912,13 +1912,13 @@
         <v>4.2514700000000003</v>
       </c>
       <c r="K14" s="24">
-        <v>11.206</v>
+        <v>11.2059</v>
       </c>
       <c r="L14" s="24">
         <v>17.117899999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="N14" s="31">
         <v>4.9919200000000004</v>
@@ -1927,13 +1927,13 @@
         <v>4.9919099999999998</v>
       </c>
       <c r="P14" s="24">
-        <v>1.30724E-2</v>
+        <v>1.3072200000000001E-2</v>
       </c>
       <c r="Q14" s="24">
         <v>1.9967699999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>161</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1941,10 +1941,10 @@
         <v>0.12</v>
       </c>
       <c r="B15" s="5">
-        <v>-3.6673200000000001</v>
+        <v>7.6130300000000002</v>
       </c>
       <c r="C15" s="22">
-        <v>1.1531</v>
+        <v>8.4529899999999998</v>
       </c>
       <c r="D15" s="5">
         <v>-3.8</v>
@@ -1959,37 +1959,37 @@
         <v>2.88</v>
       </c>
       <c r="H15" s="22">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="I15" s="5">
-        <v>4.31677</v>
+        <v>4.3167600000000004</v>
       </c>
       <c r="J15" s="24">
         <v>4.31677</v>
       </c>
       <c r="K15" s="24">
-        <v>9.3360500000000002</v>
+        <v>9.3361499999999999</v>
       </c>
       <c r="L15" s="24">
         <v>17.360399999999998</v>
       </c>
       <c r="M15" s="1">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="N15" s="31">
-        <v>4.9926599999999999</v>
+        <v>4.9926700000000004</v>
       </c>
       <c r="O15" s="24">
         <v>4.9926700000000004</v>
       </c>
       <c r="P15" s="24">
-        <v>1.07603E-2</v>
+        <v>1.07387E-2</v>
       </c>
       <c r="Q15" s="24">
         <v>1.9970699999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>161</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -1997,10 +1997,10 @@
         <v>0.13</v>
       </c>
       <c r="B16" s="5">
-        <v>-3.1300300000000001</v>
+        <v>-4.9022600000000001</v>
       </c>
       <c r="C16" s="22">
-        <v>-4.5622299999999996</v>
+        <v>-2.8424800000000001</v>
       </c>
       <c r="D16" s="5">
         <v>-3.7</v>
@@ -2012,25 +2012,25 @@
         <v>151.38</v>
       </c>
       <c r="G16" s="24">
-        <v>3.38</v>
+        <v>3.3799899999999998</v>
       </c>
       <c r="H16" s="22">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I16" s="5">
         <v>4.3727400000000003</v>
       </c>
       <c r="J16" s="24">
-        <v>4.3727499999999999</v>
+        <v>4.3727400000000003</v>
       </c>
       <c r="K16" s="24">
-        <v>7.8689400000000003</v>
+        <v>7.8691199999999997</v>
       </c>
       <c r="L16" s="24">
-        <v>17.569700000000001</v>
+        <v>17.569600000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>304</v>
+        <v>166</v>
       </c>
       <c r="N16" s="31">
         <v>4.9933100000000001</v>
@@ -2039,13 +2039,13 @@
         <v>4.9933100000000001</v>
       </c>
       <c r="P16" s="24">
-        <v>8.9452899999999998E-3</v>
+        <v>8.9454300000000007E-3</v>
       </c>
       <c r="Q16" s="24">
         <v>1.99733</v>
       </c>
       <c r="R16" s="1">
-        <v>302</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2053,13 +2053,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="B17" s="5">
-        <v>1.5046200000000001</v>
+        <v>2.3951199999999999</v>
       </c>
       <c r="C17" s="22">
-        <v>1.58101</v>
+        <v>-6.7631800000000002</v>
       </c>
       <c r="D17" s="5">
-        <v>-3.6000100000000002</v>
+        <v>-3.6</v>
       </c>
       <c r="E17" s="24">
         <v>-3.6</v>
@@ -2068,40 +2068,40 @@
         <v>147.91999999999999</v>
       </c>
       <c r="G17" s="24">
-        <v>3.9199799999999998</v>
+        <v>3.92001</v>
       </c>
       <c r="H17" s="22">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c r="I17" s="5">
+        <v>4.4212600000000002</v>
+      </c>
+      <c r="J17" s="24">
         <v>4.4212699999999998</v>
       </c>
-      <c r="J17" s="24">
-        <v>4.4212600000000002</v>
-      </c>
       <c r="K17" s="24">
-        <v>6.6986699999999999</v>
+        <v>6.69869</v>
       </c>
       <c r="L17" s="24">
         <v>17.751999999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="N17" s="31">
-        <v>4.9938700000000003</v>
+        <v>4.9938599999999997</v>
       </c>
       <c r="O17" s="24">
         <v>4.9938599999999997</v>
       </c>
       <c r="P17" s="24">
-        <v>7.5284000000000002E-3</v>
+        <v>7.5374700000000001E-3</v>
       </c>
       <c r="Q17" s="24">
         <v>1.9975499999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2109,25 +2109,25 @@
         <v>0.15</v>
       </c>
       <c r="B18" s="5">
-        <v>-4.3470899999999997</v>
+        <v>-4.9133899999999997</v>
       </c>
       <c r="C18" s="22">
-        <v>0.37055199999999999</v>
+        <v>8.0784699999999994</v>
       </c>
       <c r="D18" s="5">
         <v>-3.5</v>
       </c>
       <c r="E18" s="24">
-        <v>-3.5</v>
+        <v>-3.5000100000000001</v>
       </c>
       <c r="F18" s="24">
         <v>144.5</v>
       </c>
       <c r="G18" s="24">
-        <v>4.4999900000000004</v>
+        <v>4.4999599999999997</v>
       </c>
       <c r="H18" s="22">
-        <v>310</v>
+        <v>166</v>
       </c>
       <c r="I18" s="5">
         <v>4.4637200000000004</v>
@@ -2136,28 +2136,28 @@
         <v>4.4637200000000004</v>
       </c>
       <c r="K18" s="24">
-        <v>5.7518700000000003</v>
+        <v>5.7518500000000001</v>
       </c>
       <c r="L18" s="24">
         <v>17.912400000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="N18" s="31">
-        <v>4.9943299999999997</v>
+        <v>4.9943400000000002</v>
       </c>
       <c r="O18" s="24">
         <v>4.9943400000000002</v>
       </c>
       <c r="P18" s="24">
-        <v>6.4150099999999996E-3</v>
+        <v>6.4146300000000002E-3</v>
       </c>
       <c r="Q18" s="24">
         <v>1.9977400000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>302</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -2165,10 +2165,10 @@
         <v>0.16</v>
       </c>
       <c r="B19" s="5">
-        <v>3.32091</v>
+        <v>5.92631</v>
       </c>
       <c r="C19" s="22">
-        <v>-0.61054900000000001</v>
+        <v>-8.8721399999999999</v>
       </c>
       <c r="D19" s="5">
         <v>-3.4</v>
@@ -2180,10 +2180,10 @@
         <v>141.12</v>
       </c>
       <c r="G19" s="24">
-        <v>5.11998</v>
+        <v>5.1200099999999997</v>
       </c>
       <c r="H19" s="22">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="I19" s="5">
         <v>4.5011900000000002</v>
@@ -2192,13 +2192,13 @@
         <v>4.5011900000000002</v>
       </c>
       <c r="K19" s="24">
-        <v>4.97628</v>
+        <v>4.9762599999999999</v>
       </c>
       <c r="L19" s="24">
         <v>18.054500000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>309</v>
+        <v>165</v>
       </c>
       <c r="N19" s="31">
         <v>4.9947499999999998</v>
@@ -2207,13 +2207,13 @@
         <v>4.9947499999999998</v>
       </c>
       <c r="P19" s="24">
-        <v>5.50623E-3</v>
+        <v>5.50696E-3</v>
       </c>
       <c r="Q19" s="24">
         <v>1.9979</v>
       </c>
       <c r="R19" s="1">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2221,10 +2221,10 @@
         <v>0.17</v>
       </c>
       <c r="B20" s="5">
-        <v>-8.3142099999999992</v>
+        <v>1.3300799999999999</v>
       </c>
       <c r="C20" s="22">
-        <v>1.37375</v>
+        <v>-1.6865699999999999</v>
       </c>
       <c r="D20" s="5">
         <v>-3.3</v>
@@ -2239,22 +2239,22 @@
         <v>5.78</v>
       </c>
       <c r="H20" s="22">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="I20" s="5">
-        <v>4.5345000000000004</v>
+        <v>4.5344899999999999</v>
       </c>
       <c r="J20" s="24">
-        <v>4.5345000000000004</v>
+        <v>4.5344899999999999</v>
       </c>
       <c r="K20" s="24">
-        <v>4.3338900000000002</v>
+        <v>4.3340100000000001</v>
       </c>
       <c r="L20" s="24">
         <v>18.1813</v>
       </c>
       <c r="M20" s="1">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c r="N20" s="31">
         <v>4.99512</v>
@@ -2263,13 +2263,13 @@
         <v>4.99512</v>
       </c>
       <c r="P20" s="24">
-        <v>4.7635999999999998E-3</v>
+        <v>4.7599799999999996E-3</v>
       </c>
       <c r="Q20" s="24">
         <v>1.9980500000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>403</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2277,10 +2277,10 @@
         <v>0.18</v>
       </c>
       <c r="B21" s="5">
-        <v>3.6767300000000001</v>
+        <v>-2.7387800000000002</v>
       </c>
       <c r="C21" s="22">
-        <v>-2.8425699999999998</v>
+        <v>4.94177</v>
       </c>
       <c r="D21" s="5">
         <v>-3.2</v>
@@ -2295,37 +2295,37 @@
         <v>6.48</v>
       </c>
       <c r="H21" s="22">
-        <v>305</v>
+        <v>166</v>
       </c>
       <c r="I21" s="5">
-        <v>4.5642899999999997</v>
+        <v>4.5643000000000002</v>
       </c>
       <c r="J21" s="24">
         <v>4.5642899999999997</v>
       </c>
       <c r="K21" s="24">
-        <v>3.7968000000000002</v>
+        <v>3.7967300000000002</v>
       </c>
       <c r="L21" s="24">
-        <v>18.295100000000001</v>
+        <v>18.295200000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>304</v>
+        <v>167</v>
       </c>
       <c r="N21" s="31">
         <v>4.9954499999999999</v>
       </c>
       <c r="O21" s="24">
-        <v>4.9954700000000001</v>
+        <v>4.9954499999999999</v>
       </c>
       <c r="P21" s="24">
-        <v>4.1234499999999999E-3</v>
+        <v>4.1458399999999996E-3</v>
       </c>
       <c r="Q21" s="24">
         <v>1.9981800000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>161</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -2333,10 +2333,10 @@
         <v>0.19</v>
       </c>
       <c r="B22" s="5">
-        <v>-2.1859999999999999</v>
+        <v>-8.7705900000000003</v>
       </c>
       <c r="C22" s="22">
-        <v>3.9304700000000001</v>
+        <v>9.9047099999999997</v>
       </c>
       <c r="D22" s="5">
         <v>-3.1</v>
@@ -2348,10 +2348,10 @@
         <v>131.22</v>
       </c>
       <c r="G22" s="24">
-        <v>7.22004</v>
+        <v>7.2200300000000004</v>
       </c>
       <c r="H22" s="22">
-        <v>163</v>
+        <v>450</v>
       </c>
       <c r="I22" s="5">
         <v>4.5911200000000001</v>
@@ -2360,13 +2360,13 @@
         <v>4.5911200000000001</v>
       </c>
       <c r="K22" s="24">
-        <v>3.3436599999999999</v>
+        <v>3.3437100000000002</v>
       </c>
       <c r="L22" s="24">
         <v>18.3979</v>
       </c>
       <c r="M22" s="1">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N22" s="31">
         <v>4.9957399999999996</v>
@@ -2375,13 +2375,13 @@
         <v>4.9957399999999996</v>
       </c>
       <c r="P22" s="24">
-        <v>3.63526E-3</v>
+        <v>3.6289099999999999E-3</v>
       </c>
       <c r="Q22" s="24">
         <v>1.9983</v>
       </c>
       <c r="R22" s="1">
-        <v>267</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -2389,25 +2389,25 @@
         <v>0.2</v>
       </c>
       <c r="B23" s="5">
-        <v>0.27032099999999998</v>
+        <v>-5.9158900000000001</v>
       </c>
       <c r="C23" s="22">
-        <v>6.49186</v>
+        <v>-7.47058</v>
       </c>
       <c r="D23" s="5">
-        <v>-3.0000100000000001</v>
+        <v>-3</v>
       </c>
       <c r="E23" s="24">
-        <v>-3.0000100000000001</v>
+        <v>-3</v>
       </c>
       <c r="F23" s="24">
         <v>128</v>
       </c>
       <c r="G23" s="24">
-        <v>7.99993</v>
+        <v>8</v>
       </c>
       <c r="H23" s="22">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="I23" s="5">
         <v>4.6153899999999997</v>
@@ -2416,28 +2416,28 @@
         <v>4.61538</v>
       </c>
       <c r="K23" s="24">
-        <v>2.9585499999999998</v>
+        <v>2.9585599999999999</v>
       </c>
       <c r="L23" s="24">
         <v>18.491099999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="N23" s="31">
         <v>4.9960000000000004</v>
       </c>
       <c r="O23" s="24">
-        <v>4.9960000000000004</v>
+        <v>4.9960100000000001</v>
       </c>
       <c r="P23" s="24">
-        <v>3.1967699999999998E-3</v>
+        <v>3.1861300000000001E-3</v>
       </c>
       <c r="Q23" s="24">
         <v>1.9984</v>
       </c>
       <c r="R23" s="1">
-        <v>268</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2445,25 +2445,25 @@
         <v>0.21</v>
       </c>
       <c r="B24" s="5">
-        <v>5.9271799999999999</v>
+        <v>-0.263546</v>
       </c>
       <c r="C24" s="22">
-        <v>-6.2455400000000001</v>
+        <v>-0.28479199999999999</v>
       </c>
       <c r="D24" s="5">
         <v>-2.9</v>
       </c>
       <c r="E24" s="24">
-        <v>-2.8999899999999998</v>
+        <v>-2.9</v>
       </c>
       <c r="F24" s="24">
         <v>124.82</v>
       </c>
       <c r="G24" s="24">
-        <v>8.8200199999999995</v>
+        <v>8.8199699999999996</v>
       </c>
       <c r="H24" s="22">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="I24" s="5">
         <v>4.6374500000000003</v>
@@ -2472,13 +2472,13 @@
         <v>4.6374500000000003</v>
       </c>
       <c r="K24" s="24">
-        <v>2.6288499999999999</v>
+        <v>2.62887</v>
       </c>
       <c r="L24" s="24">
         <v>18.5761</v>
       </c>
       <c r="M24" s="1">
-        <v>161</v>
+        <v>284</v>
       </c>
       <c r="N24" s="31">
         <v>4.9962400000000002</v>
@@ -2487,13 +2487,13 @@
         <v>4.9962400000000002</v>
       </c>
       <c r="P24" s="24">
-        <v>2.8293599999999999E-3</v>
+        <v>2.8276500000000001E-3</v>
       </c>
       <c r="Q24" s="24">
         <v>1.9984999999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>304</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2501,10 +2501,10 @@
         <v>0.22</v>
       </c>
       <c r="B25" s="5">
-        <v>-1.6288199999999999</v>
+        <v>-7.9605499999999996</v>
       </c>
       <c r="C25" s="22">
-        <v>-6.5828899999999999</v>
+        <v>3.7379899999999999</v>
       </c>
       <c r="D25" s="5">
         <v>-2.8</v>
@@ -2516,10 +2516,10 @@
         <v>121.68</v>
       </c>
       <c r="G25" s="24">
-        <v>9.6799900000000001</v>
+        <v>9.6799800000000005</v>
       </c>
       <c r="H25" s="22">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="I25" s="5">
         <v>4.6575899999999999</v>
@@ -2528,28 +2528,28 @@
         <v>4.6575899999999999</v>
       </c>
       <c r="K25" s="24">
-        <v>2.34483</v>
+        <v>2.34484</v>
       </c>
       <c r="L25" s="24">
         <v>18.6538</v>
       </c>
       <c r="M25" s="1">
-        <v>472</v>
+        <v>276</v>
       </c>
       <c r="N25" s="31">
-        <v>4.9964500000000003</v>
+        <v>4.9964599999999999</v>
       </c>
       <c r="O25" s="24">
         <v>4.9964599999999999</v>
       </c>
       <c r="P25" s="24">
-        <v>2.5135999999999999E-3</v>
+        <v>2.5120400000000001E-3</v>
       </c>
       <c r="Q25" s="24">
         <v>1.99858</v>
       </c>
       <c r="R25" s="1">
-        <v>300</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
@@ -2557,13 +2557,13 @@
         <v>0.23</v>
       </c>
       <c r="B26" s="5">
-        <v>-1.73342</v>
+        <v>3.8875999999999999</v>
       </c>
       <c r="C26" s="22">
-        <v>-1.8276699999999999</v>
+        <v>-2.5946799999999999</v>
       </c>
       <c r="D26" s="5">
-        <v>-2.7</v>
+        <v>-2.6999900000000001</v>
       </c>
       <c r="E26" s="24">
         <v>-2.7</v>
@@ -2575,37 +2575,37 @@
         <v>10.58</v>
       </c>
       <c r="H26" s="22">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I26" s="5">
         <v>4.6760599999999997</v>
       </c>
       <c r="J26" s="24">
-        <v>4.6760599999999997</v>
+        <v>4.67605</v>
       </c>
       <c r="K26" s="24">
-        <v>2.0987100000000001</v>
+        <v>2.0988199999999999</v>
       </c>
       <c r="L26" s="24">
         <v>18.725200000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="N26" s="31">
         <v>4.9966499999999998</v>
       </c>
       <c r="O26" s="24">
-        <v>4.9966600000000003</v>
+        <v>4.9966499999999998</v>
       </c>
       <c r="P26" s="24">
-        <v>2.2401600000000002E-3</v>
+        <v>2.2400100000000002E-3</v>
       </c>
       <c r="Q26" s="24">
         <v>1.9986600000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>163</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2613,55 +2613,55 @@
         <v>0.24</v>
       </c>
       <c r="B27" s="5">
-        <v>7.2726300000000004</v>
+        <v>-0.47187400000000002</v>
       </c>
       <c r="C27" s="22">
-        <v>-5.8352199999999996</v>
+        <v>0.606105</v>
       </c>
       <c r="D27" s="5">
         <v>-2.6000100000000002</v>
       </c>
       <c r="E27" s="24">
-        <v>-2.6</v>
+        <v>-2.6000100000000002</v>
       </c>
       <c r="F27" s="24">
         <v>115.52</v>
       </c>
       <c r="G27" s="24">
-        <v>11.52</v>
+        <v>11.5199</v>
       </c>
       <c r="H27" s="22">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I27" s="5">
         <v>4.6930500000000004</v>
       </c>
       <c r="J27" s="24">
-        <v>4.69306</v>
+        <v>4.6930500000000004</v>
       </c>
       <c r="K27" s="24">
-        <v>1.88432</v>
+        <v>1.8843300000000001</v>
       </c>
       <c r="L27" s="24">
         <v>18.7911</v>
       </c>
       <c r="M27" s="1">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="N27" s="31">
-        <v>4.9968399999999997</v>
+        <v>4.9968300000000001</v>
       </c>
       <c r="O27" s="24">
         <v>4.9968300000000001</v>
       </c>
       <c r="P27" s="24">
-        <v>2.0023300000000001E-3</v>
+        <v>2.0089800000000001E-3</v>
       </c>
       <c r="Q27" s="24">
         <v>1.9987299999999999</v>
       </c>
       <c r="R27" s="1">
-        <v>300</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -2669,55 +2669,55 @@
         <v>0.25</v>
       </c>
       <c r="B28" s="5">
-        <v>-8.6855700000000002</v>
+        <v>-1.32396</v>
       </c>
       <c r="C28" s="22">
-        <v>9.3290100000000002</v>
+        <v>1.48417</v>
       </c>
       <c r="D28" s="5">
-        <v>-2.4998999999999998</v>
+        <v>-2.5</v>
       </c>
       <c r="E28" s="24">
-        <v>-2.50162</v>
+        <v>-2.5</v>
       </c>
       <c r="F28" s="24">
-        <v>112.523</v>
+        <v>112.5</v>
       </c>
       <c r="G28" s="24">
-        <v>12.4924</v>
+        <v>12.5</v>
       </c>
       <c r="H28" s="22">
-        <v>376</v>
+        <v>168</v>
       </c>
       <c r="I28" s="5">
-        <v>4.70885</v>
+        <v>4.7087399999999997</v>
       </c>
       <c r="J28" s="24">
-        <v>4.7080000000000002</v>
+        <v>4.7087399999999997</v>
       </c>
       <c r="K28" s="24">
-        <v>1.70034</v>
+        <v>1.69661</v>
       </c>
       <c r="L28" s="24">
-        <v>18.8507</v>
+        <v>18.851900000000001</v>
       </c>
       <c r="M28" s="1">
-        <v>359</v>
+        <v>167</v>
       </c>
       <c r="N28" s="31">
-        <v>4.9970699999999999</v>
+        <v>4.9969999999999999</v>
       </c>
       <c r="O28" s="24">
-        <v>4.9965599999999997</v>
+        <v>4.9969999999999999</v>
       </c>
       <c r="P28" s="24">
-        <v>2.04404E-3</v>
+        <v>1.80441E-3</v>
       </c>
       <c r="Q28" s="24">
-        <v>1.9987299999999999</v>
+        <v>1.9987999999999999</v>
       </c>
       <c r="R28" s="1">
-        <v>505</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -2725,13 +2725,13 @@
         <v>0.26</v>
       </c>
       <c r="B29" s="5">
-        <v>-2.8484400000000001</v>
+        <v>4.02102</v>
       </c>
       <c r="C29" s="22">
-        <v>-9.6806900000000002</v>
+        <v>-1.7869699999999999</v>
       </c>
       <c r="D29" s="5">
-        <v>-2.4</v>
+        <v>-2.40001</v>
       </c>
       <c r="E29" s="24">
         <v>-2.4</v>
@@ -2743,37 +2743,37 @@
         <v>13.52</v>
       </c>
       <c r="H29" s="22">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="I29" s="5">
-        <v>4.7232500000000002</v>
+        <v>4.7232599999999998</v>
       </c>
       <c r="J29" s="24">
         <v>4.7232599999999998</v>
       </c>
       <c r="K29" s="24">
-        <v>1.53176</v>
+        <v>1.53169</v>
       </c>
       <c r="L29" s="24">
-        <v>18.908300000000001</v>
+        <v>18.9084</v>
       </c>
       <c r="M29" s="1">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="N29" s="31">
-        <v>4.9971300000000003</v>
+        <v>4.99716</v>
       </c>
       <c r="O29" s="24">
-        <v>4.9971500000000004</v>
+        <v>4.99716</v>
       </c>
       <c r="P29" s="24">
-        <v>1.63532E-3</v>
+        <v>1.61415E-3</v>
       </c>
       <c r="Q29" s="24">
         <v>1.9988600000000001</v>
       </c>
       <c r="R29" s="1">
-        <v>299</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2781,10 +2781,10 @@
         <v>0.27</v>
       </c>
       <c r="B30" s="5">
-        <v>-1.20699</v>
+        <v>-7.7915400000000004</v>
       </c>
       <c r="C30" s="22">
-        <v>-7.1832799999999999</v>
+        <v>-8.7568099999999998</v>
       </c>
       <c r="D30" s="5">
         <v>-2.2999999999999998</v>
@@ -2799,22 +2799,22 @@
         <v>14.58</v>
       </c>
       <c r="H30" s="22">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="I30" s="5">
-        <v>4.7367400000000002</v>
+        <v>4.7367499999999998</v>
       </c>
       <c r="J30" s="24">
-        <v>4.7367299999999997</v>
+        <v>4.7367499999999998</v>
       </c>
       <c r="K30" s="24">
-        <v>1.3861699999999999</v>
+        <v>1.3860399999999999</v>
       </c>
       <c r="L30" s="24">
         <v>18.960799999999999</v>
       </c>
       <c r="M30" s="1">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="N30" s="31">
         <v>4.9973000000000001</v>
@@ -2823,13 +2823,13 @@
         <v>4.9973000000000001</v>
       </c>
       <c r="P30" s="24">
-        <v>1.46105E-3</v>
+        <v>1.4612200000000001E-3</v>
       </c>
       <c r="Q30" s="24">
         <v>1.99892</v>
       </c>
       <c r="R30" s="1">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -2837,13 +2837,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B31" s="5">
-        <v>-6.5621700000000001</v>
+        <v>5.91709</v>
       </c>
       <c r="C31" s="22">
-        <v>2.0834000000000001</v>
+        <v>-4.1966900000000003</v>
       </c>
       <c r="D31" s="5">
-        <v>-2.2000000000000002</v>
+        <v>-2.2000099999999998</v>
       </c>
       <c r="E31" s="24">
         <v>-2.2000000000000002</v>
@@ -2855,7 +2855,7 @@
         <v>15.68</v>
       </c>
       <c r="H31" s="22">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="I31" s="5">
         <v>4.7492999999999999</v>
@@ -2864,13 +2864,13 @@
         <v>4.7492999999999999</v>
       </c>
       <c r="K31" s="24">
-        <v>1.25698</v>
+        <v>1.2569699999999999</v>
       </c>
       <c r="L31" s="24">
         <v>19.009799999999998</v>
       </c>
       <c r="M31" s="1">
-        <v>404</v>
+        <v>166</v>
       </c>
       <c r="N31" s="31">
         <v>4.9974299999999996</v>
@@ -2879,13 +2879,13 @@
         <v>4.9974299999999996</v>
       </c>
       <c r="P31" s="24">
-        <v>1.3211399999999999E-3</v>
+        <v>1.3221000000000001E-3</v>
       </c>
       <c r="Q31" s="24">
         <v>1.9989699999999999</v>
       </c>
       <c r="R31" s="1">
-        <v>401</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -2893,10 +2893,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="B32" s="5">
-        <v>-8.1564899999999998</v>
+        <v>-4.7207800000000004</v>
       </c>
       <c r="C32" s="22">
-        <v>4.0866600000000002</v>
+        <v>-1.9097900000000001</v>
       </c>
       <c r="D32" s="5">
         <v>-2.1</v>
@@ -2911,7 +2911,7 @@
         <v>16.82</v>
       </c>
       <c r="H32" s="22">
-        <v>427</v>
+        <v>169</v>
       </c>
       <c r="I32" s="5">
         <v>4.7610200000000003</v>
@@ -2926,7 +2926,7 @@
         <v>19.055499999999999</v>
       </c>
       <c r="M32" s="1">
-        <v>411</v>
+        <v>281</v>
       </c>
       <c r="N32" s="31">
         <v>4.9975500000000004</v>
@@ -2935,13 +2935,13 @@
         <v>4.9975500000000004</v>
       </c>
       <c r="P32" s="24">
-        <v>1.19753E-3</v>
+        <v>1.1982799999999999E-3</v>
       </c>
       <c r="Q32" s="24">
         <v>1.99902</v>
       </c>
       <c r="R32" s="1">
-        <v>409</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -2949,55 +2949,55 @@
         <v>0.3</v>
       </c>
       <c r="B33" s="5">
-        <v>-6.4385199999999996</v>
+        <v>5.8532000000000002</v>
       </c>
       <c r="C33" s="22">
-        <v>-2.03729</v>
+        <v>-0.31993199999999999</v>
       </c>
       <c r="D33" s="5">
-        <v>-1.9999899999999999</v>
+        <v>-2</v>
       </c>
       <c r="E33" s="24">
         <v>-2</v>
       </c>
       <c r="F33" s="24">
-        <v>97.999899999999997</v>
+        <v>98</v>
       </c>
       <c r="G33" s="24">
-        <v>18.0001</v>
+        <v>18</v>
       </c>
       <c r="H33" s="22">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="I33" s="5">
         <v>4.7719899999999997</v>
       </c>
       <c r="J33" s="24">
-        <v>4.7719800000000001</v>
+        <v>4.7719899999999997</v>
       </c>
       <c r="K33" s="24">
-        <v>1.0398000000000001</v>
+        <v>1.03979</v>
       </c>
       <c r="L33" s="24">
         <v>19.098299999999998</v>
       </c>
       <c r="M33" s="1">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="N33" s="31">
-        <v>4.9976799999999999</v>
+        <v>4.9976700000000003</v>
       </c>
       <c r="O33" s="24">
         <v>4.9976700000000003</v>
       </c>
       <c r="P33" s="24">
-        <v>1.0825699999999999E-3</v>
+        <v>1.0893000000000001E-3</v>
       </c>
       <c r="Q33" s="24">
         <v>1.9990699999999999</v>
       </c>
       <c r="R33" s="1">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3005,55 +3005,55 @@
         <v>0.31</v>
       </c>
       <c r="B34" s="5">
-        <v>-1.1876100000000001E-2</v>
+        <v>5.3536400000000004</v>
       </c>
       <c r="C34" s="22">
-        <v>9.1255699999999997</v>
+        <v>-6.49411</v>
       </c>
       <c r="D34" s="5">
-        <v>-1.9</v>
+        <v>-1.90001</v>
       </c>
       <c r="E34" s="24">
         <v>-1.9</v>
       </c>
       <c r="F34" s="24">
-        <v>95.22</v>
+        <v>95.220100000000002</v>
       </c>
       <c r="G34" s="24">
-        <v>19.22</v>
+        <v>19.219899999999999</v>
       </c>
       <c r="H34" s="22">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="I34" s="5">
-        <v>4.7822899999999997</v>
+        <v>4.78226</v>
       </c>
       <c r="J34" s="24">
-        <v>4.7821199999999999</v>
+        <v>4.7822699999999996</v>
       </c>
       <c r="K34" s="24">
-        <v>0.94872000000000001</v>
+        <v>0.94817099999999999</v>
       </c>
       <c r="L34" s="24">
-        <v>19.138300000000001</v>
+        <v>19.138500000000001</v>
       </c>
       <c r="M34" s="1">
-        <v>372</v>
+        <v>280</v>
       </c>
       <c r="N34" s="31">
         <v>4.9977799999999997</v>
       </c>
       <c r="O34" s="24">
-        <v>4.9977600000000004</v>
+        <v>4.99777</v>
       </c>
       <c r="P34" s="24">
-        <v>9.9581499999999994E-4</v>
+        <v>9.8990899999999997E-4</v>
       </c>
       <c r="Q34" s="24">
         <v>1.9991099999999999</v>
       </c>
       <c r="R34" s="1">
-        <v>369</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
@@ -3061,10 +3061,10 @@
         <v>0.32</v>
       </c>
       <c r="B35" s="5">
-        <v>9.3897200000000005</v>
+        <v>-8.3890100000000007</v>
       </c>
       <c r="C35" s="22">
-        <v>2.0135000000000001</v>
+        <v>6.3532700000000002</v>
       </c>
       <c r="D35" s="5">
         <v>-1.8</v>
@@ -3073,28 +3073,28 @@
         <v>-1.8</v>
       </c>
       <c r="F35" s="24">
-        <v>92.479900000000001</v>
+        <v>92.48</v>
       </c>
       <c r="G35" s="24">
         <v>20.48</v>
       </c>
       <c r="H35" s="22">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I35" s="5">
-        <v>4.7919099999999997</v>
+        <v>4.7919200000000002</v>
       </c>
       <c r="J35" s="24">
         <v>4.7919200000000002</v>
       </c>
       <c r="K35" s="24">
-        <v>0.86596099999999998</v>
+        <v>0.86592599999999997</v>
       </c>
       <c r="L35" s="24">
         <v>19.176300000000001</v>
       </c>
       <c r="M35" s="1">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="N35" s="31">
         <v>4.9978800000000003</v>
@@ -3103,13 +3103,13 @@
         <v>4.9978800000000003</v>
       </c>
       <c r="P35" s="24">
-        <v>9.0226900000000003E-4</v>
+        <v>9.0162100000000002E-4</v>
       </c>
       <c r="Q35" s="24">
         <v>1.99915</v>
       </c>
       <c r="R35" s="1">
-        <v>307</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
@@ -3117,55 +3117,55 @@
         <v>0.33</v>
       </c>
       <c r="B36" s="5">
-        <v>7.4226400000000003</v>
+        <v>-1.6706000000000001</v>
       </c>
       <c r="C36" s="22">
-        <v>-8.3173200000000005</v>
+        <v>2.0766200000000001</v>
       </c>
       <c r="D36" s="5">
-        <v>-1.69994</v>
+        <v>-1.7</v>
       </c>
       <c r="E36" s="24">
-        <v>-1.7002200000000001</v>
+        <v>-1.7</v>
       </c>
       <c r="F36" s="24">
-        <v>89.782200000000003</v>
+        <v>89.78</v>
       </c>
       <c r="G36" s="24">
-        <v>21.7789</v>
+        <v>21.78</v>
       </c>
       <c r="H36" s="22">
-        <v>361</v>
+        <v>168</v>
       </c>
       <c r="I36" s="5">
-        <v>4.8007799999999996</v>
+        <v>4.8010200000000003</v>
       </c>
       <c r="J36" s="24">
-        <v>4.8028500000000003</v>
+        <v>4.8010099999999998</v>
       </c>
       <c r="K36" s="24">
-        <v>0.78557699999999997</v>
+        <v>0.79190400000000005</v>
       </c>
       <c r="L36" s="24">
-        <v>19.2151</v>
+        <v>19.212</v>
       </c>
       <c r="M36" s="1">
-        <v>381</v>
+        <v>167</v>
       </c>
       <c r="N36" s="31">
-        <v>4.9982800000000003</v>
+        <v>4.9979800000000001</v>
       </c>
       <c r="O36" s="24">
-        <v>4.9955699999999998</v>
+        <v>4.9979699999999996</v>
       </c>
       <c r="P36" s="24">
-        <v>2.2588399999999998E-3</v>
+        <v>8.2052399999999999E-4</v>
       </c>
       <c r="Q36" s="24">
-        <v>1.9987699999999999</v>
+        <v>1.99919</v>
       </c>
       <c r="R36" s="1">
-        <v>384</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -3173,25 +3173,25 @@
         <v>0.34</v>
       </c>
       <c r="B37" s="5">
-        <v>-1.35592</v>
+        <v>-7.78878</v>
       </c>
       <c r="C37" s="22">
-        <v>3.8828900000000002</v>
+        <v>9.1254799999999996</v>
       </c>
       <c r="D37" s="5">
         <v>-1.6</v>
       </c>
       <c r="E37" s="24">
-        <v>-1.6</v>
+        <v>-1.6000099999999999</v>
       </c>
       <c r="F37" s="24">
-        <v>87.12</v>
+        <v>87.120099999999994</v>
       </c>
       <c r="G37" s="24">
         <v>23.12</v>
       </c>
       <c r="H37" s="22">
-        <v>305</v>
+        <v>166</v>
       </c>
       <c r="I37" s="5">
         <v>4.8095800000000004</v>
@@ -3200,28 +3200,28 @@
         <v>4.8095800000000004</v>
       </c>
       <c r="K37" s="24">
-        <v>0.72520499999999999</v>
+        <v>0.72520600000000002</v>
       </c>
       <c r="L37" s="24">
         <v>19.2456</v>
       </c>
       <c r="M37" s="1">
-        <v>439</v>
+        <v>277</v>
       </c>
       <c r="N37" s="31">
-        <v>4.9980700000000002</v>
+        <v>4.9980599999999997</v>
       </c>
       <c r="O37" s="24">
         <v>4.9980599999999997</v>
       </c>
       <c r="P37" s="24">
-        <v>7.5044100000000002E-4</v>
+        <v>7.53332E-4</v>
       </c>
       <c r="Q37" s="24">
-        <v>1.9992300000000001</v>
+        <v>1.99922</v>
       </c>
       <c r="R37" s="1">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
@@ -3229,55 +3229,55 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="B38" s="5">
-        <v>-1.2456199999999999</v>
+        <v>-5.8573300000000001</v>
       </c>
       <c r="C38" s="22">
-        <v>0.453125</v>
+        <v>-5.9774099999999999</v>
       </c>
       <c r="D38" s="5">
-        <v>-1.5</v>
+        <v>-1.5000100000000001</v>
       </c>
       <c r="E38" s="24">
-        <v>-1.5</v>
+        <v>-1.5000100000000001</v>
       </c>
       <c r="F38" s="24">
-        <v>84.5</v>
+        <v>84.500200000000007</v>
       </c>
       <c r="G38" s="24">
-        <v>24.5</v>
+        <v>24.4999</v>
       </c>
       <c r="H38" s="22">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I38" s="5">
-        <v>4.8176800000000002</v>
+        <v>4.8176699999999997</v>
       </c>
       <c r="J38" s="24">
         <v>4.8176699999999997</v>
       </c>
       <c r="K38" s="24">
-        <v>0.66486500000000004</v>
+        <v>0.66487099999999999</v>
       </c>
       <c r="L38" s="24">
         <v>19.2773</v>
       </c>
       <c r="M38" s="1">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="N38" s="31">
-        <v>4.9981400000000002</v>
+        <v>4.9981299999999997</v>
       </c>
       <c r="O38" s="24">
         <v>4.9981400000000002</v>
       </c>
       <c r="P38" s="24">
-        <v>6.8955199999999996E-4</v>
+        <v>6.94464E-4</v>
       </c>
       <c r="Q38" s="24">
-        <v>1.99926</v>
+        <v>1.99925</v>
       </c>
       <c r="R38" s="1">
-        <v>305</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -3285,10 +3285,10 @@
         <v>0.36</v>
       </c>
       <c r="B39" s="5">
-        <v>5.5025700000000004</v>
+        <v>-2.7589000000000001</v>
       </c>
       <c r="C39" s="22">
-        <v>8.0870300000000004</v>
+        <v>5.9154099999999996</v>
       </c>
       <c r="D39" s="5">
         <v>-1.4</v>
@@ -3303,37 +3303,37 @@
         <v>25.92</v>
       </c>
       <c r="H39" s="22">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="I39" s="5">
         <v>4.8253300000000001</v>
       </c>
       <c r="J39" s="24">
-        <v>4.8253300000000001</v>
+        <v>4.8253199999999996</v>
       </c>
       <c r="K39" s="24">
-        <v>0.61019699999999999</v>
+        <v>0.61022100000000001</v>
       </c>
       <c r="L39" s="24">
         <v>19.307400000000001</v>
       </c>
       <c r="M39" s="1">
-        <v>165</v>
+        <v>280</v>
       </c>
       <c r="N39" s="31">
-        <v>4.9982199999999999</v>
+        <v>4.9982100000000003</v>
       </c>
       <c r="O39" s="24">
         <v>4.9982199999999999</v>
       </c>
       <c r="P39" s="24">
-        <v>6.3380299999999995E-4</v>
+        <v>6.35858E-4</v>
       </c>
       <c r="Q39" s="24">
         <v>1.99929</v>
       </c>
       <c r="R39" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -3341,10 +3341,10 @@
         <v>0.37</v>
       </c>
       <c r="B40" s="5">
-        <v>-8.1511499999999995</v>
+        <v>4.7123799999999996</v>
       </c>
       <c r="C40" s="22">
-        <v>1.7828299999999999</v>
+        <v>5.1933100000000003</v>
       </c>
       <c r="D40" s="5">
         <v>-1.3</v>
@@ -3359,7 +3359,7 @@
         <v>27.38</v>
       </c>
       <c r="H40" s="22">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="I40" s="5">
         <v>4.8325800000000001</v>
@@ -3368,28 +3368,28 @@
         <v>4.8325800000000001</v>
       </c>
       <c r="K40" s="24">
-        <v>0.56059099999999995</v>
+        <v>0.56059300000000001</v>
       </c>
       <c r="L40" s="24">
         <v>19.335899999999999</v>
       </c>
       <c r="M40" s="1">
-        <v>403</v>
+        <v>173</v>
       </c>
       <c r="N40" s="31">
-        <v>4.99831</v>
+        <v>4.9983000000000004</v>
       </c>
       <c r="O40" s="24">
         <v>4.9983000000000004</v>
       </c>
       <c r="P40" s="24">
-        <v>5.74663E-4</v>
+        <v>5.7923000000000002E-4</v>
       </c>
       <c r="Q40" s="24">
         <v>1.99932</v>
       </c>
       <c r="R40" s="1">
-        <v>256</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
@@ -3397,55 +3397,55 @@
         <v>0.38</v>
       </c>
       <c r="B41" s="5">
-        <v>9.3608700000000002</v>
+        <v>-9.9897600000000004</v>
       </c>
       <c r="C41" s="22">
-        <v>-1.2773699999999999</v>
+        <v>7.92624</v>
       </c>
       <c r="D41" s="5">
-        <v>-1.20001</v>
+        <v>-1.2</v>
       </c>
       <c r="E41" s="24">
         <v>-1.2</v>
       </c>
       <c r="F41" s="24">
-        <v>76.880099999999999</v>
+        <v>76.88</v>
       </c>
       <c r="G41" s="24">
-        <v>28.879899999999999</v>
+        <v>28.88</v>
       </c>
       <c r="H41" s="22">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="I41" s="5">
-        <v>4.8394700000000004</v>
+        <v>4.8394599999999999</v>
       </c>
       <c r="J41" s="24">
         <v>4.8394599999999999</v>
       </c>
       <c r="K41" s="24">
-        <v>0.51543799999999995</v>
+        <v>0.51544599999999996</v>
       </c>
       <c r="L41" s="24">
         <v>19.363</v>
       </c>
       <c r="M41" s="1">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="N41" s="31">
-        <v>4.99838</v>
+        <v>4.9983700000000004</v>
       </c>
       <c r="O41" s="24">
-        <v>4.9983599999999999</v>
+        <v>4.9983700000000004</v>
       </c>
       <c r="P41" s="24">
-        <v>5.3089399999999996E-4</v>
+        <v>5.3291700000000005E-4</v>
       </c>
       <c r="Q41" s="24">
         <v>1.99935</v>
       </c>
       <c r="R41" s="1">
-        <v>161</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -3453,10 +3453,10 @@
         <v>0.39</v>
       </c>
       <c r="B42" s="5">
-        <v>-5.2205000000000004</v>
+        <v>-8.5273400000000006</v>
       </c>
       <c r="C42" s="22">
-        <v>-3.68696</v>
+        <v>-8.1458200000000005</v>
       </c>
       <c r="D42" s="5">
         <v>-1.1000000000000001</v>
@@ -3471,7 +3471,7 @@
         <v>30.42</v>
       </c>
       <c r="H42" s="22">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I42" s="5">
         <v>4.8460000000000001</v>
@@ -3486,22 +3486,22 @@
         <v>19.3887</v>
       </c>
       <c r="M42" s="1">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="N42" s="31">
         <v>4.9984400000000004</v>
       </c>
       <c r="O42" s="24">
-        <v>4.9984400000000004</v>
+        <v>4.9984299999999999</v>
       </c>
       <c r="P42" s="24">
-        <v>4.8917999999999998E-4</v>
+        <v>4.9064599999999996E-4</v>
       </c>
       <c r="Q42" s="24">
         <v>1.9993700000000001</v>
       </c>
       <c r="R42" s="1">
-        <v>304</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -3509,25 +3509,25 @@
         <v>0.4</v>
       </c>
       <c r="B43" s="5">
-        <v>-4.47316</v>
+        <v>2.5425499999999999</v>
       </c>
       <c r="C43" s="22">
-        <v>6.5668899999999999</v>
+        <v>7.0053999999999998</v>
       </c>
       <c r="D43" s="5">
-        <v>-1.00003</v>
+        <v>-1</v>
       </c>
       <c r="E43" s="24">
-        <v>-0.99993100000000001</v>
+        <v>-1</v>
       </c>
       <c r="F43" s="24">
-        <v>71.999499999999998</v>
+        <v>72</v>
       </c>
       <c r="G43" s="24">
-        <v>32.000300000000003</v>
+        <v>32</v>
       </c>
       <c r="H43" s="22">
-        <v>406</v>
+        <v>280</v>
       </c>
       <c r="I43" s="5">
         <v>4.85222</v>
@@ -3536,13 +3536,13 @@
         <v>4.85222</v>
       </c>
       <c r="K43" s="24">
-        <v>0.43679200000000001</v>
+        <v>0.43679499999999999</v>
       </c>
       <c r="L43" s="24">
         <v>19.4132</v>
       </c>
       <c r="M43" s="1">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="N43" s="31">
         <v>4.9984999999999999</v>
@@ -3551,13 +3551,13 @@
         <v>4.9984999999999999</v>
       </c>
       <c r="P43" s="24">
-        <v>4.4922099999999997E-4</v>
+        <v>4.4967800000000001E-4</v>
       </c>
       <c r="Q43" s="24">
         <v>1.9994000000000001</v>
       </c>
       <c r="R43" s="1">
-        <v>409</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3565,55 +3565,55 @@
         <v>0.41000000000000003</v>
       </c>
       <c r="B44" s="5">
-        <v>2.3599299999999999</v>
+        <v>7.1903499999999996</v>
       </c>
       <c r="C44" s="22">
-        <v>7.1890099999999997</v>
+        <v>-7.8519100000000002</v>
       </c>
       <c r="D44" s="5">
-        <v>-0.90000100000000005</v>
+        <v>-0.89999600000000002</v>
       </c>
       <c r="E44" s="24">
-        <v>-0.9</v>
+        <v>-0.89999700000000005</v>
       </c>
       <c r="F44" s="24">
-        <v>69.62</v>
+        <v>69.619900000000001</v>
       </c>
       <c r="G44" s="24">
-        <v>33.619999999999997</v>
+        <v>33.620100000000001</v>
       </c>
       <c r="H44" s="22">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="I44" s="5">
+        <v>4.8581300000000001</v>
+      </c>
+      <c r="J44" s="24">
         <v>4.8581399999999997</v>
       </c>
-      <c r="J44" s="24">
-        <v>4.8581300000000001</v>
-      </c>
       <c r="K44" s="24">
-        <v>0.402501</v>
+        <v>0.40248800000000001</v>
       </c>
       <c r="L44" s="24">
         <v>19.436599999999999</v>
       </c>
       <c r="M44" s="1">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N44" s="31">
-        <v>4.9985499999999998</v>
+        <v>4.9985600000000003</v>
       </c>
       <c r="O44" s="24">
         <v>4.9985600000000003</v>
       </c>
       <c r="P44" s="24">
-        <v>4.1591399999999998E-4</v>
+        <v>4.1423000000000002E-4</v>
       </c>
       <c r="Q44" s="24">
         <v>1.99942</v>
       </c>
       <c r="R44" s="1">
-        <v>163</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3621,25 +3621,25 @@
         <v>0.42</v>
       </c>
       <c r="B45" s="5">
-        <v>-0.73791099999999998</v>
+        <v>7.93682</v>
       </c>
       <c r="C45" s="22">
-        <v>-8.0425500000000003</v>
+        <v>8.4497099999999996</v>
       </c>
       <c r="D45" s="5">
-        <v>-0.80000099999999996</v>
+        <v>-0.80000400000000005</v>
       </c>
       <c r="E45" s="24">
-        <v>-0.80000499999999997</v>
+        <v>-0.79999699999999996</v>
       </c>
       <c r="F45" s="24">
-        <v>67.280100000000004</v>
+        <v>67.28</v>
       </c>
       <c r="G45" s="24">
-        <v>35.279899999999998</v>
+        <v>35.28</v>
       </c>
       <c r="H45" s="22">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="I45" s="5">
         <v>4.8637899999999998</v>
@@ -3648,13 +3648,13 @@
         <v>4.8637899999999998</v>
       </c>
       <c r="K45" s="24">
-        <v>0.37105500000000002</v>
+        <v>0.37106699999999998</v>
       </c>
       <c r="L45" s="24">
         <v>19.4589</v>
       </c>
       <c r="M45" s="1">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="N45" s="31">
         <v>4.9986199999999998</v>
@@ -3663,13 +3663,13 @@
         <v>4.9986199999999998</v>
       </c>
       <c r="P45" s="24">
-        <v>3.8098299999999999E-4</v>
+        <v>3.81073E-4</v>
       </c>
       <c r="Q45" s="24">
         <v>1.9994499999999999</v>
       </c>
       <c r="R45" s="1">
-        <v>297</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3677,55 +3677,55 @@
         <v>0.43</v>
       </c>
       <c r="B46" s="5">
-        <v>7.8878700000000004</v>
+        <v>7.6323499999999997</v>
       </c>
       <c r="C46" s="22">
-        <v>-6.9912000000000001</v>
+        <v>-1.4045799999999999</v>
       </c>
       <c r="D46" s="5">
-        <v>-0.70001899999999995</v>
+        <v>-0.7</v>
       </c>
       <c r="E46" s="24">
-        <v>-0.69996199999999997</v>
+        <v>-0.70000099999999998</v>
       </c>
       <c r="F46" s="24">
-        <v>64.979799999999997</v>
+        <v>64.98</v>
       </c>
       <c r="G46" s="24">
-        <v>36.980200000000004</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="H46" s="22">
-        <v>357</v>
+        <v>279</v>
       </c>
       <c r="I46" s="5">
-        <v>4.8691300000000002</v>
+        <v>4.8691800000000001</v>
       </c>
       <c r="J46" s="24">
-        <v>4.8693900000000001</v>
+        <v>4.8691800000000001</v>
       </c>
       <c r="K46" s="24">
-        <v>0.34185700000000002</v>
+        <v>0.34229199999999999</v>
       </c>
       <c r="L46" s="24">
-        <v>19.480499999999999</v>
+        <v>19.4801</v>
       </c>
       <c r="M46" s="1">
-        <v>425</v>
+        <v>280</v>
       </c>
       <c r="N46" s="31">
-        <v>4.9986800000000002</v>
+        <v>4.9986699999999997</v>
       </c>
       <c r="O46" s="24">
         <v>4.9986699999999997</v>
       </c>
       <c r="P46" s="24">
-        <v>3.5295999999999998E-4</v>
+        <v>3.5190699999999999E-4</v>
       </c>
       <c r="Q46" s="24">
         <v>1.9994700000000001</v>
       </c>
       <c r="R46" s="1">
-        <v>159</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3733,40 +3733,40 @@
         <v>0.44</v>
       </c>
       <c r="B47" s="5">
-        <v>-7.2575399999999997</v>
+        <v>-9.5439699999999998</v>
       </c>
       <c r="C47" s="22">
-        <v>3.5638000000000001</v>
+        <v>-1.1712899999999999</v>
       </c>
       <c r="D47" s="5">
-        <v>-0.6</v>
+        <v>-0.59998399999999996</v>
       </c>
       <c r="E47" s="24">
-        <v>-0.6</v>
+        <v>-0.59999899999999995</v>
       </c>
       <c r="F47" s="24">
-        <v>62.72</v>
+        <v>62.719799999999999</v>
       </c>
       <c r="G47" s="24">
-        <v>38.72</v>
+        <v>38.720100000000002</v>
       </c>
       <c r="H47" s="22">
-        <v>424</v>
+        <v>166</v>
       </c>
       <c r="I47" s="5">
-        <v>4.87432</v>
+        <v>4.8743299999999996</v>
       </c>
       <c r="J47" s="24">
         <v>4.8743299999999996</v>
       </c>
       <c r="K47" s="24">
-        <v>0.31589899999999999</v>
+        <v>0.31587599999999999</v>
       </c>
       <c r="L47" s="24">
-        <v>19.500399999999999</v>
+        <v>19.500499999999999</v>
       </c>
       <c r="M47" s="1">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="N47" s="31">
         <v>4.9987300000000001</v>
@@ -3775,13 +3775,13 @@
         <v>4.9987300000000001</v>
       </c>
       <c r="P47" s="24">
-        <v>3.2424400000000001E-4</v>
+        <v>3.2380000000000001E-4</v>
       </c>
       <c r="Q47" s="24">
         <v>1.99949</v>
       </c>
       <c r="R47" s="1">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -3789,16 +3789,16 @@
         <v>0.45</v>
       </c>
       <c r="B48" s="5">
-        <v>-2.4691100000000001</v>
+        <v>-6.2473000000000001</v>
       </c>
       <c r="C48" s="22">
-        <v>5.4874400000000003</v>
+        <v>5.6620299999999997</v>
       </c>
       <c r="D48" s="5">
+        <v>-0.50000199999999995</v>
+      </c>
+      <c r="E48" s="24">
         <v>-0.50000100000000003</v>
-      </c>
-      <c r="E48" s="24">
-        <v>-0.50000299999999998</v>
       </c>
       <c r="F48" s="24">
         <v>60.5</v>
@@ -3807,7 +3807,7 @@
         <v>40.5</v>
       </c>
       <c r="H48" s="22">
-        <v>163</v>
+        <v>282</v>
       </c>
       <c r="I48" s="5">
         <v>4.8792499999999999</v>
@@ -3816,28 +3816,28 @@
         <v>4.8792499999999999</v>
       </c>
       <c r="K48" s="24">
-        <v>0.291601</v>
+        <v>0.29159200000000002</v>
       </c>
       <c r="L48" s="24">
         <v>19.5199</v>
       </c>
       <c r="M48" s="1">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="N48" s="31">
-        <v>4.99878</v>
+        <v>4.9987599999999999</v>
       </c>
       <c r="O48" s="24">
         <v>4.99878</v>
       </c>
       <c r="P48" s="24">
-        <v>2.98752E-4</v>
+        <v>3.0220600000000001E-4</v>
       </c>
       <c r="Q48" s="24">
         <v>1.9995099999999999</v>
       </c>
       <c r="R48" s="1">
-        <v>418</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -3845,55 +3845,55 @@
         <v>0.46</v>
       </c>
       <c r="B49" s="5">
-        <v>-0.640046</v>
+        <v>-6.0219100000000001</v>
       </c>
       <c r="C49" s="22">
-        <v>-6.8985900000000004</v>
+        <v>-0.37135200000000002</v>
       </c>
       <c r="D49" s="5">
         <v>-0.4</v>
       </c>
       <c r="E49" s="24">
-        <v>-0.40000799999999997</v>
+        <v>-0.39999899999999999</v>
       </c>
       <c r="F49" s="24">
-        <v>58.320099999999996</v>
+        <v>58.32</v>
       </c>
       <c r="G49" s="24">
-        <v>42.319899999999997</v>
+        <v>42.32</v>
       </c>
       <c r="H49" s="22">
-        <v>163</v>
+        <v>283</v>
       </c>
       <c r="I49" s="5">
-        <v>4.8839699999999997</v>
+        <v>4.8839899999999998</v>
       </c>
       <c r="J49" s="24">
         <v>4.8839699999999997</v>
       </c>
       <c r="K49" s="24">
-        <v>0.26925700000000002</v>
+        <v>0.26922499999999999</v>
       </c>
       <c r="L49" s="24">
         <v>19.538599999999999</v>
       </c>
       <c r="M49" s="1">
-        <v>304</v>
+        <v>166</v>
       </c>
       <c r="N49" s="31">
-        <v>4.9988299999999999</v>
+        <v>4.9988400000000004</v>
       </c>
       <c r="O49" s="24">
-        <v>4.9988299999999999</v>
+        <v>4.9988200000000003</v>
       </c>
       <c r="P49" s="24">
-        <v>2.7554599999999999E-4</v>
+        <v>2.7481599999999999E-4</v>
       </c>
       <c r="Q49" s="24">
         <v>1.99953</v>
       </c>
       <c r="R49" s="1">
-        <v>306</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -3901,55 +3901,55 @@
         <v>0.47000000000000003</v>
       </c>
       <c r="B50" s="5">
-        <v>-7.3132099999999998</v>
+        <v>1.69062</v>
       </c>
       <c r="C50" s="22">
-        <v>-4.26328</v>
+        <v>6.3524500000000002</v>
       </c>
       <c r="D50" s="5">
-        <v>-0.30001299999999997</v>
+        <v>-0.30000399999999999</v>
       </c>
       <c r="E50" s="24">
-        <v>-0.30000399999999999</v>
+        <v>-0.29999900000000002</v>
       </c>
       <c r="F50" s="24">
-        <v>56.180199999999999</v>
+        <v>56.18</v>
       </c>
       <c r="G50" s="24">
-        <v>44.1798</v>
+        <v>44.18</v>
       </c>
       <c r="H50" s="22">
-        <v>163</v>
+        <v>282</v>
       </c>
       <c r="I50" s="5">
         <v>4.88849</v>
       </c>
       <c r="J50" s="24">
-        <v>4.8884999999999996</v>
+        <v>4.88849</v>
       </c>
       <c r="K50" s="24">
-        <v>0.24867800000000001</v>
+        <v>0.24867400000000001</v>
       </c>
       <c r="L50" s="24">
         <v>19.5565</v>
       </c>
       <c r="M50" s="1">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="N50" s="31">
         <v>4.9988700000000001</v>
       </c>
       <c r="O50" s="24">
-        <v>4.9988700000000001</v>
+        <v>4.9988799999999998</v>
       </c>
       <c r="P50" s="24">
-        <v>2.5431500000000002E-4</v>
+        <v>2.5378400000000001E-4</v>
       </c>
       <c r="Q50" s="24">
         <v>1.9995499999999999</v>
       </c>
       <c r="R50" s="1">
-        <v>303</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3957,25 +3957,25 @@
         <v>0.48</v>
       </c>
       <c r="B51" s="5">
-        <v>-5.6847399999999997</v>
+        <v>9.2471200000000007</v>
       </c>
       <c r="C51" s="22">
-        <v>-8.0404599999999995</v>
+        <v>-8.5363900000000008</v>
       </c>
       <c r="D51" s="5">
-        <v>-0.20000299999999999</v>
+        <v>-0.20000399999999999</v>
       </c>
       <c r="E51" s="24">
-        <v>-0.20000399999999999</v>
+        <v>-0.19999600000000001</v>
       </c>
       <c r="F51" s="24">
-        <v>54.080100000000002</v>
+        <v>54.08</v>
       </c>
       <c r="G51" s="24">
-        <v>46.079900000000002</v>
+        <v>46.08</v>
       </c>
       <c r="H51" s="22">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I51" s="5">
         <v>4.89283</v>
@@ -3984,13 +3984,13 @@
         <v>4.89283</v>
       </c>
       <c r="K51" s="24">
-        <v>0.22971800000000001</v>
+        <v>0.229714</v>
       </c>
       <c r="L51" s="24">
         <v>19.573599999999999</v>
       </c>
       <c r="M51" s="1">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="N51" s="31">
         <v>4.99892</v>
@@ -3999,13 +3999,13 @@
         <v>4.99892</v>
       </c>
       <c r="P51" s="24">
-        <v>2.3472200000000001E-4</v>
+        <v>2.34868E-4</v>
       </c>
       <c r="Q51" s="24">
         <v>1.9995700000000001</v>
       </c>
       <c r="R51" s="1">
-        <v>303</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -4013,16 +4013,16 @@
         <v>0.49</v>
       </c>
       <c r="B52" s="5">
-        <v>6.8917599999999997</v>
+        <v>-8.7522900000000003</v>
       </c>
       <c r="C52" s="22">
-        <v>2.4650599999999998</v>
+        <v>6.1764400000000004</v>
       </c>
       <c r="D52" s="5">
-        <v>-9.9999599999999994E-2</v>
+        <v>-0.100009</v>
       </c>
       <c r="E52" s="24">
-        <v>-0.10000100000000001</v>
+        <v>-9.9994899999999998E-2</v>
       </c>
       <c r="F52" s="24">
         <v>52.02</v>
@@ -4031,7 +4031,7 @@
         <v>48.02</v>
       </c>
       <c r="H52" s="22">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="I52" s="5">
         <v>4.8969899999999997</v>
@@ -4040,13 +4040,13 @@
         <v>4.8969899999999997</v>
       </c>
       <c r="K52" s="24">
-        <v>0.21221200000000001</v>
+        <v>0.21221499999999999</v>
       </c>
       <c r="L52" s="24">
         <v>19.5901</v>
       </c>
       <c r="M52" s="1">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="N52" s="31">
         <v>4.9989600000000003</v>
@@ -4055,13 +4055,13 @@
         <v>4.9989600000000003</v>
       </c>
       <c r="P52" s="24">
-        <v>2.16095E-4</v>
+        <v>2.1607700000000001E-4</v>
       </c>
       <c r="Q52" s="24">
         <v>1.9995799999999999</v>
       </c>
       <c r="R52" s="1">
-        <v>165</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -4069,16 +4069,16 @@
         <v>0.5</v>
       </c>
       <c r="B53" s="5">
-        <v>-4.7924300000000004</v>
+        <v>3.2815799999999999</v>
       </c>
       <c r="C53" s="22">
-        <v>-3.39961</v>
+        <v>-3.2206700000000001</v>
       </c>
       <c r="D53" s="5">
-        <v>3.2850100000000002E-6</v>
+        <v>8.6967799999999998E-6</v>
       </c>
       <c r="E53" s="24">
-        <v>-1.3763000000000001E-6</v>
+        <v>-5.9222900000000002E-6</v>
       </c>
       <c r="F53" s="24">
         <v>50</v>
@@ -4087,22 +4087,22 @@
         <v>50</v>
       </c>
       <c r="H53" s="22">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="I53" s="5">
-        <v>4.9009999999999998</v>
+        <v>4.9009900000000002</v>
       </c>
       <c r="J53" s="24">
         <v>4.9009900000000002</v>
       </c>
       <c r="K53" s="24">
-        <v>0.19605600000000001</v>
+        <v>0.19605900000000001</v>
       </c>
       <c r="L53" s="24">
         <v>19.605899999999998</v>
       </c>
       <c r="M53" s="1">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="N53" s="31">
         <v>4.9989999999999997</v>
@@ -4111,13 +4111,13 @@
         <v>4.9989999999999997</v>
       </c>
       <c r="P53" s="24">
-        <v>1.99784E-4</v>
+        <v>1.99502E-4</v>
       </c>
       <c r="Q53" s="24">
         <v>1.9996</v>
       </c>
       <c r="R53" s="1">
-        <v>302</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -4125,16 +4125,16 @@
         <v>0.51</v>
       </c>
       <c r="B54" s="5">
-        <v>-3.1996199999999999</v>
+        <v>-5.9300199999999998</v>
       </c>
       <c r="C54" s="22">
-        <v>5.7234699999999998</v>
+        <v>2.57056</v>
       </c>
       <c r="D54" s="5">
+        <v>9.9995000000000001E-2</v>
+      </c>
+      <c r="E54" s="24">
         <v>0.10000199999999999</v>
-      </c>
-      <c r="E54" s="24">
-        <v>9.9995000000000001E-2</v>
       </c>
       <c r="F54" s="24">
         <v>48.02</v>
@@ -4143,22 +4143,22 @@
         <v>52.02</v>
       </c>
       <c r="H54" s="22">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I54" s="5">
-        <v>4.9048299999999996</v>
+        <v>4.9048499999999997</v>
       </c>
       <c r="J54" s="24">
         <v>4.9048400000000001</v>
       </c>
       <c r="K54" s="24">
-        <v>0.18112800000000001</v>
+        <v>0.18110200000000001</v>
       </c>
       <c r="L54" s="24">
         <v>19.621200000000002</v>
       </c>
       <c r="M54" s="1">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="N54" s="31">
         <v>4.9990399999999999</v>
@@ -4167,13 +4167,13 @@
         <v>4.9990399999999999</v>
       </c>
       <c r="P54" s="24">
-        <v>1.8470199999999999E-4</v>
+        <v>1.8458999999999999E-4</v>
       </c>
       <c r="Q54" s="24">
         <v>1.99962</v>
       </c>
       <c r="R54" s="1">
-        <v>415</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
@@ -4181,16 +4181,16 @@
         <v>0.52</v>
       </c>
       <c r="B55" s="5">
-        <v>8.3054699999999997</v>
+        <v>-3.75319</v>
       </c>
       <c r="C55" s="22">
-        <v>2.9525899999999998</v>
+        <v>7.3503999999999996</v>
       </c>
       <c r="D55" s="5">
-        <v>0.20000200000000001</v>
+        <v>0.19999900000000001</v>
       </c>
       <c r="E55" s="24">
-        <v>0.19999700000000001</v>
+        <v>0.19999900000000001</v>
       </c>
       <c r="F55" s="24">
         <v>46.08</v>
@@ -4199,37 +4199,37 @@
         <v>54.08</v>
       </c>
       <c r="H55" s="22">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="I55" s="5">
-        <v>4.9085400000000003</v>
+        <v>4.9085299999999998</v>
       </c>
       <c r="J55" s="24">
         <v>4.9085400000000003</v>
       </c>
       <c r="K55" s="24">
-        <v>0.16731099999999999</v>
+        <v>0.167321</v>
       </c>
       <c r="L55" s="24">
         <v>19.6358</v>
       </c>
       <c r="M55" s="1">
-        <v>305</v>
+        <v>166</v>
       </c>
       <c r="N55" s="31">
-        <v>4.9990699999999997</v>
+        <v>4.9990800000000002</v>
       </c>
       <c r="O55" s="24">
         <v>4.9990800000000002</v>
       </c>
       <c r="P55" s="24">
-        <v>1.7154900000000001E-4</v>
+        <v>1.70886E-4</v>
       </c>
       <c r="Q55" s="24">
         <v>1.99963</v>
       </c>
       <c r="R55" s="1">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -4237,55 +4237,55 @@
         <v>0.53</v>
       </c>
       <c r="B56" s="5">
-        <v>9.6956699999999998</v>
+        <v>-2.4253100000000001</v>
       </c>
       <c r="C56" s="22">
-        <v>-6.5838200000000002</v>
+        <v>-1.5381400000000001</v>
       </c>
       <c r="D56" s="5">
-        <v>0.29999399999999998</v>
+        <v>0.29999900000000002</v>
       </c>
       <c r="E56" s="24">
-        <v>0.30001299999999997</v>
+        <v>0.30000199999999999</v>
       </c>
       <c r="F56" s="24">
-        <v>44.179900000000004</v>
+        <v>44.18</v>
       </c>
       <c r="G56" s="24">
-        <v>56.180100000000003</v>
+        <v>56.18</v>
       </c>
       <c r="H56" s="22">
-        <v>357</v>
+        <v>169</v>
       </c>
       <c r="I56" s="5">
-        <v>4.9120600000000003</v>
+        <v>4.9120999999999997</v>
       </c>
       <c r="J56" s="24">
-        <v>4.9122300000000001</v>
+        <v>4.9120999999999997</v>
       </c>
       <c r="K56" s="24">
-        <v>0.154363</v>
+        <v>0.154527</v>
       </c>
       <c r="L56" s="24">
-        <v>19.650099999999998</v>
+        <v>19.649899999999999</v>
       </c>
       <c r="M56" s="1">
-        <v>367</v>
+        <v>283</v>
       </c>
       <c r="N56" s="31">
         <v>4.9991099999999999</v>
       </c>
       <c r="O56" s="24">
-        <v>4.9991199999999996</v>
+        <v>4.9991099999999999</v>
       </c>
       <c r="P56" s="24">
-        <v>1.5698599999999999E-4</v>
+        <v>1.57229E-4</v>
       </c>
       <c r="Q56" s="24">
         <v>1.9996499999999999</v>
       </c>
       <c r="R56" s="1">
-        <v>372</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
@@ -4293,55 +4293,55 @@
         <v>0.54</v>
       </c>
       <c r="B57" s="5">
-        <v>-9.4201999999999995</v>
+        <v>-7.9026899999999998</v>
       </c>
       <c r="C57" s="22">
-        <v>4.9088599999999998</v>
+        <v>7.9091300000000002</v>
       </c>
       <c r="D57" s="5">
-        <v>0.39999899999999999</v>
+        <v>0.39999299999999999</v>
       </c>
       <c r="E57" s="24">
-        <v>0.39999899999999999</v>
+        <v>0.39999699999999999</v>
       </c>
       <c r="F57" s="24">
-        <v>42.32</v>
+        <v>42.320099999999996</v>
       </c>
       <c r="G57" s="24">
-        <v>58.32</v>
+        <v>58.319899999999997</v>
       </c>
       <c r="H57" s="22">
-        <v>407</v>
+        <v>280</v>
       </c>
       <c r="I57" s="5">
-        <v>4.9155300000000004</v>
+        <v>4.9155199999999999</v>
       </c>
       <c r="J57" s="24">
         <v>4.9155300000000004</v>
       </c>
       <c r="K57" s="24">
-        <v>0.14269100000000001</v>
+        <v>0.14272000000000001</v>
       </c>
       <c r="L57" s="24">
-        <v>19.663599999999999</v>
+        <v>19.663499999999999</v>
       </c>
       <c r="M57" s="1">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="N57" s="31">
-        <v>4.9991399999999997</v>
+        <v>4.9991500000000002</v>
       </c>
       <c r="O57" s="24">
         <v>4.9991500000000002</v>
       </c>
       <c r="P57" s="24">
-        <v>1.46157E-4</v>
+        <v>1.45208E-4</v>
       </c>
       <c r="Q57" s="24">
         <v>1.99966</v>
       </c>
       <c r="R57" s="1">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -4349,16 +4349,16 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B58" s="5">
-        <v>2.8577699999999999</v>
+        <v>7.7194200000000004</v>
       </c>
       <c r="C58" s="22">
-        <v>4.3118999999999996</v>
+        <v>6.0052500000000002</v>
       </c>
       <c r="D58" s="5">
+        <v>0.49999900000000003</v>
+      </c>
+      <c r="E58" s="24">
         <v>0.50000100000000003</v>
-      </c>
-      <c r="E58" s="24">
-        <v>0.5</v>
       </c>
       <c r="F58" s="24">
         <v>40.5</v>
@@ -4367,7 +4367,7 @@
         <v>60.5</v>
       </c>
       <c r="H58" s="22">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="I58" s="5">
         <v>4.9188499999999999</v>
@@ -4376,13 +4376,13 @@
         <v>4.9188400000000003</v>
       </c>
       <c r="K58" s="24">
-        <v>0.131716</v>
+        <v>0.131717</v>
       </c>
       <c r="L58" s="24">
         <v>19.6767</v>
       </c>
       <c r="M58" s="1">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N58" s="31">
         <v>4.99918</v>
@@ -4391,13 +4391,13 @@
         <v>4.99918</v>
       </c>
       <c r="P58" s="24">
-        <v>1.33232E-4</v>
+        <v>1.3327900000000001E-4</v>
       </c>
       <c r="Q58" s="24">
         <v>1.9996700000000001</v>
       </c>
       <c r="R58" s="1">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
@@ -4405,16 +4405,16 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="B59" s="5">
-        <v>9.3403600000000004</v>
+        <v>-3.78884</v>
       </c>
       <c r="C59" s="22">
-        <v>0.58760400000000002</v>
+        <v>-6.4563699999999997</v>
       </c>
       <c r="D59" s="5">
         <v>0.6</v>
       </c>
       <c r="E59" s="24">
-        <v>0.59999899999999995</v>
+        <v>0.59999800000000003</v>
       </c>
       <c r="F59" s="24">
         <v>38.72</v>
@@ -4423,7 +4423,7 @@
         <v>62.72</v>
       </c>
       <c r="H59" s="22">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="I59" s="5">
         <v>4.92204</v>
@@ -4432,28 +4432,28 @@
         <v>4.92204</v>
       </c>
       <c r="K59" s="24">
-        <v>0.12155299999999999</v>
+        <v>0.12155199999999999</v>
       </c>
       <c r="L59" s="24">
         <v>19.689399999999999</v>
       </c>
       <c r="M59" s="1">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="N59" s="31">
-        <v>4.9992299999999998</v>
+        <v>4.9992099999999997</v>
       </c>
       <c r="O59" s="24">
-        <v>4.9992099999999997</v>
+        <v>4.9992200000000002</v>
       </c>
       <c r="P59" s="24">
-        <v>1.2231399999999999E-4</v>
+        <v>1.23554E-4</v>
       </c>
       <c r="Q59" s="24">
         <v>1.99969</v>
       </c>
       <c r="R59" s="1">
-        <v>161</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4461,16 +4461,16 @@
         <v>0.57000000000000006</v>
       </c>
       <c r="B60" s="5">
-        <v>-9.3039500000000004</v>
+        <v>6.7499000000000002</v>
       </c>
       <c r="C60" s="22">
-        <v>6.4662499999999996</v>
+        <v>4.6524799999999997</v>
       </c>
       <c r="D60" s="5">
-        <v>0.69998400000000005</v>
+        <v>0.69999299999999998</v>
       </c>
       <c r="E60" s="24">
-        <v>0.70001100000000005</v>
+        <v>0.70000300000000004</v>
       </c>
       <c r="F60" s="24">
         <v>36.979999999999997</v>
@@ -4479,7 +4479,7 @@
         <v>64.979900000000001</v>
       </c>
       <c r="H60" s="22">
-        <v>360</v>
+        <v>167</v>
       </c>
       <c r="I60" s="5">
         <v>4.9251300000000002</v>
@@ -4488,28 +4488,28 @@
         <v>4.9251300000000002</v>
       </c>
       <c r="K60" s="24">
-        <v>0.112125</v>
+        <v>0.112123</v>
       </c>
       <c r="L60" s="24">
         <v>19.701599999999999</v>
       </c>
       <c r="M60" s="1">
-        <v>407</v>
+        <v>169</v>
       </c>
       <c r="N60" s="31">
         <v>4.99925</v>
       </c>
       <c r="O60" s="24">
-        <v>4.99925</v>
+        <v>4.9992400000000004</v>
       </c>
       <c r="P60" s="24">
-        <v>1.13272E-4</v>
+        <v>1.13396E-4</v>
       </c>
       <c r="Q60" s="24">
         <v>1.9997</v>
       </c>
       <c r="R60" s="1">
-        <v>409</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4517,16 +4517,16 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="B61" s="5">
-        <v>-5.2029300000000003</v>
+        <v>9.1991899999999998</v>
       </c>
       <c r="C61" s="22">
-        <v>5.3481300000000003</v>
+        <v>9.5914400000000004</v>
       </c>
       <c r="D61" s="5">
-        <v>0.80000099999999996</v>
+        <v>0.8</v>
       </c>
       <c r="E61" s="24">
-        <v>0.80000099999999996</v>
+        <v>0.8</v>
       </c>
       <c r="F61" s="24">
         <v>35.28</v>
@@ -4535,37 +4535,37 @@
         <v>67.28</v>
       </c>
       <c r="H61" s="22">
-        <v>411</v>
+        <v>279</v>
       </c>
       <c r="I61" s="5">
-        <v>4.9280999999999997</v>
+        <v>4.9281199999999998</v>
       </c>
       <c r="J61" s="24">
         <v>4.9281100000000002</v>
       </c>
       <c r="K61" s="24">
-        <v>0.103383</v>
+        <v>0.103357</v>
       </c>
       <c r="L61" s="24">
-        <v>19.7134</v>
+        <v>19.7135</v>
       </c>
       <c r="M61" s="1">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="N61" s="31">
-        <v>4.9992799999999997</v>
+        <v>4.9992700000000001</v>
       </c>
       <c r="O61" s="24">
         <v>4.9992799999999997</v>
       </c>
       <c r="P61" s="24">
-        <v>1.03973E-4</v>
+        <v>1.0498800000000001E-4</v>
       </c>
       <c r="Q61" s="24">
         <v>1.9997100000000001</v>
       </c>
       <c r="R61" s="1">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4573,16 +4573,16 @@
         <v>0.59</v>
       </c>
       <c r="B62" s="5">
-        <v>3.8777400000000002</v>
+        <v>-2.6078600000000001</v>
       </c>
       <c r="C62" s="22">
-        <v>3.9371100000000001</v>
+        <v>-9.6154399999999995</v>
       </c>
       <c r="D62" s="5">
-        <v>0.90000100000000005</v>
+        <v>0.89999899999999999</v>
       </c>
       <c r="E62" s="24">
-        <v>0.89999899999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F62" s="24">
         <v>33.619999999999997</v>
@@ -4591,7 +4591,7 @@
         <v>69.62</v>
       </c>
       <c r="H62" s="22">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="I62" s="5">
         <v>4.9309900000000004</v>
@@ -4600,28 +4600,28 @@
         <v>4.9309900000000004</v>
       </c>
       <c r="K62" s="24">
-        <v>9.5252799999999999E-2</v>
+        <v>9.5253699999999997E-2</v>
       </c>
       <c r="L62" s="24">
         <v>19.724900000000002</v>
       </c>
       <c r="M62" s="1">
-        <v>171</v>
+        <v>277</v>
       </c>
       <c r="N62" s="31">
-        <v>4.9993100000000004</v>
+        <v>4.9992900000000002</v>
       </c>
       <c r="O62" s="24">
-        <v>4.9992999999999999</v>
+        <v>4.9992900000000002</v>
       </c>
       <c r="P62" s="24">
-        <v>9.66633E-5</v>
+        <v>1.00679E-4</v>
       </c>
       <c r="Q62" s="24">
         <v>1.9997199999999999</v>
       </c>
       <c r="R62" s="1">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4629,10 +4629,10 @@
         <v>0.6</v>
       </c>
       <c r="B63" s="5">
-        <v>4.6172199999999997</v>
+        <v>-8.7718100000000003</v>
       </c>
       <c r="C63" s="22">
-        <v>2.2707899999999999</v>
+        <v>-7.4360499999999998</v>
       </c>
       <c r="D63" s="5">
         <v>1</v>
@@ -4644,25 +4644,25 @@
         <v>32</v>
       </c>
       <c r="G63" s="24">
-        <v>72.000100000000003</v>
+        <v>72</v>
       </c>
       <c r="H63" s="22">
-        <v>165</v>
+        <v>279</v>
       </c>
       <c r="I63" s="5">
         <v>4.9337799999999996</v>
       </c>
       <c r="J63" s="24">
-        <v>4.9337799999999996</v>
+        <v>4.93377</v>
       </c>
       <c r="K63" s="24">
-        <v>8.7708599999999998E-2</v>
+        <v>8.7715399999999999E-2</v>
       </c>
       <c r="L63" s="24">
         <v>19.736000000000001</v>
       </c>
       <c r="M63" s="1">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="N63" s="31">
         <v>4.9993299999999996</v>
@@ -4671,13 +4671,13 @@
         <v>4.9993299999999996</v>
       </c>
       <c r="P63" s="24">
-        <v>8.9447699999999994E-5</v>
+        <v>8.9121299999999997E-5</v>
       </c>
       <c r="Q63" s="24">
         <v>1.99973</v>
       </c>
       <c r="R63" s="1">
-        <v>167</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
@@ -4685,40 +4685,40 @@
         <v>0.61</v>
       </c>
       <c r="B64" s="5">
-        <v>-1.08362</v>
+        <v>3.8053300000000001</v>
       </c>
       <c r="C64" s="22">
-        <v>-6.2481499999999999</v>
+        <v>-4.7682799999999999</v>
       </c>
       <c r="D64" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1000099999999999</v>
       </c>
       <c r="E64" s="24">
-        <v>1.1000000000000001</v>
+        <v>1.09999</v>
       </c>
       <c r="F64" s="24">
         <v>30.42</v>
       </c>
       <c r="G64" s="24">
-        <v>74.42</v>
+        <v>74.419899999999998</v>
       </c>
       <c r="H64" s="22">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="I64" s="5">
-        <v>4.9364600000000003</v>
+        <v>4.9364699999999999</v>
       </c>
       <c r="J64" s="24">
         <v>4.9364600000000003</v>
       </c>
       <c r="K64" s="24">
-        <v>8.0755499999999994E-2</v>
+        <v>8.0735899999999999E-2</v>
       </c>
       <c r="L64" s="24">
-        <v>19.746600000000001</v>
+        <v>19.746700000000001</v>
       </c>
       <c r="M64" s="1">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N64" s="31">
         <v>4.9993600000000002</v>
@@ -4727,13 +4727,13 @@
         <v>4.9993600000000002</v>
       </c>
       <c r="P64" s="24">
-        <v>8.2031299999999995E-5</v>
+        <v>8.1524400000000002E-5</v>
       </c>
       <c r="Q64" s="24">
         <v>1.9997400000000001</v>
       </c>
       <c r="R64" s="1">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4741,10 +4741,10 @@
         <v>0.62</v>
       </c>
       <c r="B65" s="5">
-        <v>9.1074199999999994</v>
+        <v>9.7141099999999998</v>
       </c>
       <c r="C65" s="22">
-        <v>-2.2416700000000001</v>
+        <v>3.8329800000000001</v>
       </c>
       <c r="D65" s="5">
         <v>1.2</v>
@@ -4759,37 +4759,37 @@
         <v>76.88</v>
       </c>
       <c r="H65" s="22">
-        <v>422</v>
+        <v>166</v>
       </c>
       <c r="I65" s="5">
+        <v>4.9390900000000002</v>
+      </c>
+      <c r="J65" s="24">
         <v>4.9390799999999997</v>
       </c>
-      <c r="J65" s="24">
-        <v>4.9390900000000002</v>
-      </c>
       <c r="K65" s="24">
-        <v>7.4212600000000004E-2</v>
+        <v>7.4212399999999998E-2</v>
       </c>
       <c r="L65" s="24">
         <v>19.757100000000001</v>
       </c>
       <c r="M65" s="1">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N65" s="31">
         <v>4.99939</v>
       </c>
       <c r="O65" s="24">
-        <v>4.9993800000000004</v>
+        <v>4.99939</v>
       </c>
       <c r="P65" s="24">
-        <v>7.5537400000000006E-5</v>
+        <v>7.5385799999999999E-5</v>
       </c>
       <c r="Q65" s="24">
         <v>1.9997499999999999</v>
       </c>
       <c r="R65" s="1">
-        <v>161</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4797,13 +4797,13 @@
         <v>0.63</v>
       </c>
       <c r="B66" s="5">
-        <v>-9.0557599999999994</v>
+        <v>-0.70204200000000005</v>
       </c>
       <c r="C66" s="22">
-        <v>2.2979500000000002</v>
+        <v>-3.02711</v>
       </c>
       <c r="D66" s="5">
-        <v>1.3000100000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E66" s="24">
         <v>1.3</v>
@@ -4812,40 +4812,40 @@
         <v>27.38</v>
       </c>
       <c r="G66" s="24">
-        <v>79.380099999999999</v>
+        <v>79.38</v>
       </c>
       <c r="H66" s="22">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="I66" s="5">
-        <v>4.9416200000000003</v>
+        <v>4.9416099999999998</v>
       </c>
       <c r="J66" s="24">
-        <v>4.9416200000000003</v>
+        <v>4.9416099999999998</v>
       </c>
       <c r="K66" s="24">
-        <v>6.8163899999999999E-2</v>
+        <v>6.8182900000000005E-2</v>
       </c>
       <c r="L66" s="24">
-        <v>19.767199999999999</v>
+        <v>19.767099999999999</v>
       </c>
       <c r="M66" s="1">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="N66" s="31">
-        <v>4.9994100000000001</v>
+        <v>4.9994199999999998</v>
       </c>
       <c r="O66" s="24">
         <v>4.9994100000000001</v>
       </c>
       <c r="P66" s="24">
-        <v>6.9194000000000002E-5</v>
+        <v>6.8700800000000005E-5</v>
       </c>
       <c r="Q66" s="24">
-        <v>1.99976</v>
+        <v>1.99977</v>
       </c>
       <c r="R66" s="1">
-        <v>403</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -4853,55 +4853,55 @@
         <v>0.64</v>
       </c>
       <c r="B67" s="5">
-        <v>-9.5395099999999999</v>
+        <v>-0.410273</v>
       </c>
       <c r="C67" s="22">
-        <v>6.9641200000000003</v>
+        <v>-4.6774399999999998</v>
       </c>
       <c r="D67" s="5">
         <v>1.4</v>
       </c>
       <c r="E67" s="24">
-        <v>1.3999900000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F67" s="24">
-        <v>25.920100000000001</v>
+        <v>25.92</v>
       </c>
       <c r="G67" s="24">
-        <v>81.919899999999998</v>
+        <v>81.920100000000005</v>
       </c>
       <c r="H67" s="22">
-        <v>358</v>
+        <v>167</v>
       </c>
       <c r="I67" s="5">
         <v>4.9440600000000003</v>
       </c>
       <c r="J67" s="24">
-        <v>4.94407</v>
+        <v>4.9440600000000003</v>
       </c>
       <c r="K67" s="24">
-        <v>6.2578099999999998E-2</v>
+        <v>6.25753E-2</v>
       </c>
       <c r="L67" s="24">
         <v>19.776900000000001</v>
       </c>
       <c r="M67" s="1">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="N67" s="31">
         <v>4.9994399999999999</v>
       </c>
       <c r="O67" s="24">
-        <v>4.9994300000000003</v>
+        <v>4.9994399999999999</v>
       </c>
       <c r="P67" s="24">
-        <v>6.3030599999999999E-5</v>
+        <v>6.3121500000000002E-5</v>
       </c>
       <c r="Q67" s="24">
         <v>1.9997799999999999</v>
       </c>
       <c r="R67" s="1">
-        <v>260</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -4909,10 +4909,10 @@
         <v>0.65</v>
       </c>
       <c r="B68" s="5">
-        <v>9.4598099999999992</v>
+        <v>7.0771499999999996</v>
       </c>
       <c r="C68" s="22">
-        <v>0.71750000000000003</v>
+        <v>-4.16343</v>
       </c>
       <c r="D68" s="5">
         <v>1.5</v>
@@ -4927,22 +4927,22 @@
         <v>84.5</v>
       </c>
       <c r="H68" s="22">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="I68" s="5">
         <v>4.9464399999999999</v>
       </c>
       <c r="J68" s="24">
-        <v>4.9464399999999999</v>
+        <v>4.9464600000000001</v>
       </c>
       <c r="K68" s="24">
-        <v>5.73754E-2</v>
+        <v>5.7359300000000002E-2</v>
       </c>
       <c r="L68" s="24">
-        <v>19.786300000000001</v>
+        <v>19.7864</v>
       </c>
       <c r="M68" s="1">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N68" s="31">
         <v>4.99946</v>
@@ -4951,13 +4951,13 @@
         <v>4.99946</v>
       </c>
       <c r="P68" s="24">
-        <v>5.8133700000000002E-5</v>
+        <v>5.8311099999999998E-5</v>
       </c>
       <c r="Q68" s="24">
         <v>1.9997799999999999</v>
       </c>
       <c r="R68" s="1">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -4965,40 +4965,40 @@
         <v>0.66</v>
       </c>
       <c r="B69" s="5">
-        <v>-4.72973</v>
+        <v>-8.6440000000000001</v>
       </c>
       <c r="C69" s="22">
-        <v>0.14022200000000001</v>
+        <v>7.1575699999999998</v>
       </c>
       <c r="D69" s="5">
-        <v>1.6</v>
+        <v>1.6000099999999999</v>
       </c>
       <c r="E69" s="24">
         <v>1.6</v>
       </c>
       <c r="F69" s="24">
-        <v>23.12</v>
+        <v>23.119900000000001</v>
       </c>
       <c r="G69" s="24">
-        <v>87.12</v>
+        <v>87.120099999999994</v>
       </c>
       <c r="H69" s="22">
-        <v>307</v>
+        <v>166</v>
       </c>
       <c r="I69" s="5">
-        <v>4.9487500000000004</v>
+        <v>4.9487699999999997</v>
       </c>
       <c r="J69" s="24">
         <v>4.9487500000000004</v>
       </c>
       <c r="K69" s="24">
-        <v>5.2533799999999999E-2</v>
+        <v>5.2518200000000001E-2</v>
       </c>
       <c r="L69" s="24">
-        <v>19.795500000000001</v>
+        <v>19.7956</v>
       </c>
       <c r="M69" s="1">
-        <v>302</v>
+        <v>165</v>
       </c>
       <c r="N69" s="31">
         <v>4.9994800000000001</v>
@@ -5007,13 +5007,13 @@
         <v>4.9994899999999998</v>
       </c>
       <c r="P69" s="24">
-        <v>5.2880400000000003E-5</v>
+        <v>5.3053400000000003E-5</v>
       </c>
       <c r="Q69" s="24">
         <v>1.99979</v>
       </c>
       <c r="R69" s="1">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -5021,55 +5021,55 @@
         <v>0.67</v>
       </c>
       <c r="B70" s="5">
-        <v>-0.25364999999999999</v>
+        <v>6.2305599999999997</v>
       </c>
       <c r="C70" s="22">
-        <v>8.9854099999999999</v>
+        <v>4.6409599999999998</v>
       </c>
       <c r="D70" s="5">
-        <v>1.7000299999999999</v>
+        <v>1.7</v>
       </c>
       <c r="E70" s="24">
-        <v>1.6997800000000001</v>
+        <v>1.7</v>
       </c>
       <c r="F70" s="24">
-        <v>21.781300000000002</v>
+        <v>21.78</v>
       </c>
       <c r="G70" s="24">
-        <v>89.777500000000003</v>
+        <v>89.78</v>
       </c>
       <c r="H70" s="22">
-        <v>387</v>
+        <v>288</v>
       </c>
       <c r="I70" s="5">
-        <v>4.9509800000000004</v>
+        <v>4.95099</v>
       </c>
       <c r="J70" s="24">
-        <v>4.9510100000000001</v>
+        <v>4.95099</v>
       </c>
       <c r="K70" s="24">
-        <v>4.8031999999999998E-2</v>
+        <v>4.8042500000000002E-2</v>
       </c>
       <c r="L70" s="24">
-        <v>19.804500000000001</v>
+        <v>19.804400000000001</v>
       </c>
       <c r="M70" s="1">
-        <v>369</v>
+        <v>170</v>
       </c>
       <c r="N70" s="31">
-        <v>4.99953</v>
+        <v>4.9995099999999999</v>
       </c>
       <c r="O70" s="24">
-        <v>4.9994399999999999</v>
+        <v>4.9995099999999999</v>
       </c>
       <c r="P70" s="24">
-        <v>5.3110599999999999E-5</v>
+        <v>4.8303899999999997E-5</v>
       </c>
       <c r="Q70" s="24">
-        <v>1.99979</v>
+        <v>1.9998</v>
       </c>
       <c r="R70" s="1">
-        <v>369</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -5077,25 +5077,25 @@
         <v>0.68</v>
       </c>
       <c r="B71" s="5">
-        <v>0.38095899999999999</v>
+        <v>-9.2414400000000008</v>
       </c>
       <c r="C71" s="22">
-        <v>7.9082499999999998</v>
+        <v>5.5059500000000003</v>
       </c>
       <c r="D71" s="5">
         <v>1.8</v>
       </c>
       <c r="E71" s="24">
-        <v>1.8000100000000001</v>
+        <v>1.8</v>
       </c>
       <c r="F71" s="24">
         <v>20.48</v>
       </c>
       <c r="G71" s="24">
-        <v>92.480099999999993</v>
+        <v>92.48</v>
       </c>
       <c r="H71" s="22">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="I71" s="5">
         <v>4.9531599999999996</v>
@@ -5104,13 +5104,13 @@
         <v>4.9531599999999996</v>
       </c>
       <c r="K71" s="24">
-        <v>4.3876499999999999E-2</v>
+        <v>4.3874400000000001E-2</v>
       </c>
       <c r="L71" s="24">
         <v>19.813099999999999</v>
       </c>
       <c r="M71" s="1">
-        <v>413</v>
+        <v>278</v>
       </c>
       <c r="N71" s="31">
         <v>4.99953</v>
@@ -5119,13 +5119,13 @@
         <v>4.99953</v>
       </c>
       <c r="P71" s="24">
-        <v>4.4347300000000001E-5</v>
+        <v>4.4399800000000001E-5</v>
       </c>
       <c r="Q71" s="24">
         <v>1.9998100000000001</v>
       </c>
       <c r="R71" s="1">
-        <v>415</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -5133,16 +5133,16 @@
         <v>0.69000000000000006</v>
       </c>
       <c r="B72" s="5">
-        <v>6.3492600000000001</v>
+        <v>2.0758899999999998</v>
       </c>
       <c r="C72" s="22">
-        <v>-4.4150099999999997</v>
+        <v>7.8977700000000004</v>
       </c>
       <c r="D72" s="5">
         <v>1.9</v>
       </c>
       <c r="E72" s="24">
-        <v>1.9</v>
+        <v>1.90001</v>
       </c>
       <c r="F72" s="24">
         <v>19.22</v>
@@ -5151,37 +5151,37 @@
         <v>95.220100000000002</v>
       </c>
       <c r="H72" s="22">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I72" s="5">
         <v>4.9552699999999996</v>
       </c>
       <c r="J72" s="24">
-        <v>4.9552699999999996</v>
+        <v>4.9552800000000001</v>
       </c>
       <c r="K72" s="24">
-        <v>4.0008200000000001E-2</v>
+        <v>4.00113E-2</v>
       </c>
       <c r="L72" s="24">
         <v>19.8215</v>
       </c>
       <c r="M72" s="1">
-        <v>304</v>
+        <v>167</v>
       </c>
       <c r="N72" s="31">
+        <v>4.9995399999999997</v>
+      </c>
+      <c r="O72" s="24">
         <v>4.9995500000000002</v>
       </c>
-      <c r="O72" s="24">
-        <v>4.99953</v>
-      </c>
       <c r="P72" s="24">
-        <v>4.1564899999999999E-5</v>
+        <v>4.07588E-5</v>
       </c>
       <c r="Q72" s="24">
         <v>1.9998199999999999</v>
       </c>
       <c r="R72" s="1">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
@@ -5189,10 +5189,10 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="B73" s="5">
-        <v>-3.3706100000000001</v>
+        <v>-2.7062599999999999</v>
       </c>
       <c r="C73" s="22">
-        <v>-0.28433700000000001</v>
+        <v>6.6216400000000002</v>
       </c>
       <c r="D73" s="5">
         <v>2</v>
@@ -5207,22 +5207,22 @@
         <v>98</v>
       </c>
       <c r="H73" s="22">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="I73" s="5">
-        <v>4.9573299999999998</v>
+        <v>4.9573499999999999</v>
       </c>
       <c r="J73" s="24">
-        <v>4.9573299999999998</v>
+        <v>4.9573200000000002</v>
       </c>
       <c r="K73" s="24">
-        <v>3.6421799999999997E-2</v>
+        <v>3.6405899999999998E-2</v>
       </c>
       <c r="L73" s="24">
         <v>19.829699999999999</v>
       </c>
       <c r="M73" s="1">
-        <v>473</v>
+        <v>166</v>
       </c>
       <c r="N73" s="31">
         <v>4.9995799999999999</v>
@@ -5231,13 +5231,13 @@
         <v>4.9995700000000003</v>
       </c>
       <c r="P73" s="24">
-        <v>3.6007100000000003E-5</v>
+        <v>3.6053500000000003E-5</v>
       </c>
       <c r="Q73" s="24">
         <v>1.99983</v>
       </c>
       <c r="R73" s="1">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -5245,55 +5245,55 @@
         <v>0.71</v>
       </c>
       <c r="B74" s="5">
-        <v>9.9198900000000005</v>
+        <v>-9.4052800000000006E-2</v>
       </c>
       <c r="C74" s="22">
-        <v>-8.4255899999999997</v>
+        <v>-6.1624299999999996</v>
       </c>
       <c r="D74" s="5">
-        <v>2.0998199999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E74" s="24">
-        <v>2.10121</v>
+        <v>2.1</v>
       </c>
       <c r="F74" s="24">
-        <v>16.814</v>
+        <v>16.82</v>
       </c>
       <c r="G74" s="24">
-        <v>100.83499999999999</v>
+        <v>100.82</v>
       </c>
       <c r="H74" s="22">
-        <v>508</v>
+        <v>280</v>
       </c>
       <c r="I74" s="5">
-        <v>4.9594300000000002</v>
+        <v>4.9593100000000003</v>
       </c>
       <c r="J74" s="24">
-        <v>4.9583300000000001</v>
+        <v>4.95932</v>
       </c>
       <c r="K74" s="24">
-        <v>3.3823300000000001E-2</v>
+        <v>3.3101100000000001E-2</v>
       </c>
       <c r="L74" s="24">
-        <v>19.835899999999999</v>
+        <v>19.837599999999998</v>
       </c>
       <c r="M74" s="1">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="N74" s="31">
-        <v>4.9992900000000002</v>
+        <v>4.9995799999999999</v>
       </c>
       <c r="O74" s="24">
-        <v>5.0021500000000003</v>
+        <v>4.9995799999999999</v>
       </c>
       <c r="P74" s="24">
-        <v>5.1212299999999996E-4</v>
+        <v>3.5175500000000002E-5</v>
       </c>
       <c r="Q74" s="24">
-        <v>2.0002900000000001</v>
+        <v>1.99983</v>
       </c>
       <c r="R74" s="1">
-        <v>369</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -5301,25 +5301,25 @@
         <v>0.72</v>
       </c>
       <c r="B75" s="5">
-        <v>-0.73494899999999996</v>
+        <v>-2.1793100000000001</v>
       </c>
       <c r="C75" s="22">
-        <v>8.1730599999999995</v>
+        <v>-9.4035600000000006</v>
       </c>
       <c r="D75" s="5">
-        <v>2.1999900000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E75" s="24">
-        <v>2.2000500000000001</v>
+        <v>2.2000099999999998</v>
       </c>
       <c r="F75" s="24">
-        <v>15.6798</v>
+        <v>15.68</v>
       </c>
       <c r="G75" s="24">
         <v>103.68</v>
       </c>
       <c r="H75" s="22">
-        <v>378</v>
+        <v>166</v>
       </c>
       <c r="I75" s="5">
         <v>4.9612600000000002</v>
@@ -5328,13 +5328,13 @@
         <v>4.9612600000000002</v>
       </c>
       <c r="K75" s="24">
-        <v>3.0012E-2</v>
+        <v>3.00139E-2</v>
       </c>
       <c r="L75" s="24">
         <v>19.845300000000002</v>
       </c>
       <c r="M75" s="1">
-        <v>412</v>
+        <v>277</v>
       </c>
       <c r="N75" s="31">
         <v>4.9996099999999997</v>
@@ -5343,13 +5343,13 @@
         <v>4.9996099999999997</v>
       </c>
       <c r="P75" s="24">
-        <v>3.0395800000000001E-5</v>
+        <v>3.0340799999999999E-5</v>
       </c>
       <c r="Q75" s="24">
         <v>1.9998400000000001</v>
       </c>
       <c r="R75" s="1">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -5357,10 +5357,10 @@
         <v>0.73</v>
       </c>
       <c r="B76" s="5">
-        <v>0.14011100000000001</v>
+        <v>8.6908999999999992</v>
       </c>
       <c r="C76" s="22">
-        <v>1.4597899999999999</v>
+        <v>-5.49</v>
       </c>
       <c r="D76" s="5">
         <v>2.2999999999999998</v>
@@ -5375,37 +5375,37 @@
         <v>106.58</v>
       </c>
       <c r="H76" s="22">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="I76" s="5">
-        <v>4.9631499999999997</v>
+        <v>4.9631600000000002</v>
       </c>
       <c r="J76" s="24">
         <v>4.9631499999999997</v>
       </c>
       <c r="K76" s="24">
-        <v>2.7154899999999999E-2</v>
+        <v>2.7154000000000001E-2</v>
       </c>
       <c r="L76" s="24">
         <v>19.852900000000002</v>
       </c>
       <c r="M76" s="1">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="N76" s="31">
-        <v>4.9996400000000003</v>
+        <v>4.9996299999999998</v>
       </c>
       <c r="O76" s="24">
-        <v>4.9996400000000003</v>
+        <v>4.9996299999999998</v>
       </c>
       <c r="P76" s="24">
-        <v>2.6072799999999999E-5</v>
+        <v>2.7177200000000001E-5</v>
       </c>
       <c r="Q76" s="24">
-        <v>1.99986</v>
+        <v>1.9998499999999999</v>
       </c>
       <c r="R76" s="1">
-        <v>163</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -5413,13 +5413,13 @@
         <v>0.74</v>
       </c>
       <c r="B77" s="5">
-        <v>-7.9500200000000003</v>
+        <v>9.8683099999999992</v>
       </c>
       <c r="C77" s="22">
-        <v>9.1639199999999992</v>
+        <v>-6.7545900000000003</v>
       </c>
       <c r="D77" s="5">
-        <v>2.3999899999999998</v>
+        <v>2.4</v>
       </c>
       <c r="E77" s="24">
         <v>2.4</v>
@@ -5431,37 +5431,37 @@
         <v>109.52</v>
       </c>
       <c r="H77" s="22">
-        <v>365</v>
+        <v>166</v>
       </c>
       <c r="I77" s="5">
-        <v>4.9650100000000004</v>
+        <v>4.9649900000000002</v>
       </c>
       <c r="J77" s="24">
-        <v>4.9649000000000001</v>
+        <v>4.9649900000000002</v>
       </c>
       <c r="K77" s="24">
-        <v>2.4567100000000001E-2</v>
+        <v>2.4515599999999999E-2</v>
       </c>
       <c r="L77" s="24">
-        <v>19.860099999999999</v>
+        <v>19.860199999999999</v>
       </c>
       <c r="M77" s="1">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="N77" s="31">
-        <v>4.9996299999999998</v>
+        <v>4.9996499999999999</v>
       </c>
       <c r="O77" s="24">
-        <v>4.9997299999999996</v>
+        <v>4.9996499999999999</v>
       </c>
       <c r="P77" s="24">
-        <v>2.08598E-5</v>
+        <v>2.4626299999999998E-5</v>
       </c>
       <c r="Q77" s="24">
-        <v>1.99987</v>
+        <v>1.99986</v>
       </c>
       <c r="R77" s="1">
-        <v>500</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -5469,55 +5469,55 @@
         <v>0.75</v>
       </c>
       <c r="B78" s="5">
-        <v>8.9191299999999991</v>
+        <v>1.75806</v>
       </c>
       <c r="C78" s="22">
-        <v>-8.2616800000000001</v>
+        <v>7.7904499999999999</v>
       </c>
       <c r="D78" s="5">
-        <v>2.5000200000000001</v>
+        <v>2.5</v>
       </c>
       <c r="E78" s="24">
-        <v>2.49987</v>
+        <v>2.5</v>
       </c>
       <c r="F78" s="24">
-        <v>12.5006</v>
+        <v>12.5</v>
       </c>
       <c r="G78" s="24">
-        <v>112.498</v>
+        <v>112.5</v>
       </c>
       <c r="H78" s="22">
-        <v>511</v>
+        <v>167</v>
       </c>
       <c r="I78" s="5">
-        <v>4.96671</v>
+        <v>4.9667700000000004</v>
       </c>
       <c r="J78" s="24">
-        <v>4.9672900000000002</v>
+        <v>4.96678</v>
       </c>
       <c r="K78" s="24">
-        <v>2.17807E-2</v>
+        <v>2.2076499999999999E-2</v>
       </c>
       <c r="L78" s="24">
-        <v>19.868200000000002</v>
+        <v>19.8673</v>
       </c>
       <c r="M78" s="1">
-        <v>374</v>
+        <v>167</v>
       </c>
       <c r="N78" s="31">
-        <v>4.9995799999999999</v>
+        <v>4.9996600000000004</v>
       </c>
       <c r="O78" s="24">
-        <v>5.0003299999999999</v>
+        <v>4.9996700000000001</v>
       </c>
       <c r="P78" s="24">
-        <v>2.8210900000000001E-5</v>
+        <v>2.2475599999999999E-5</v>
       </c>
       <c r="Q78" s="24">
-        <v>1.9999800000000001</v>
+        <v>1.99987</v>
       </c>
       <c r="R78" s="1">
-        <v>374</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
@@ -5525,10 +5525,10 @@
         <v>0.76</v>
       </c>
       <c r="B79" s="5">
-        <v>-0.46240599999999998</v>
+        <v>8.1446799999999993</v>
       </c>
       <c r="C79" s="22">
-        <v>2.39737</v>
+        <v>-5.8494700000000002</v>
       </c>
       <c r="D79" s="5">
         <v>2.6</v>
@@ -5543,7 +5543,7 @@
         <v>115.52</v>
       </c>
       <c r="H79" s="22">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="I79" s="5">
         <v>4.9685199999999998</v>
@@ -5552,28 +5552,28 @@
         <v>4.9685199999999998</v>
       </c>
       <c r="K79" s="24">
-        <v>1.9821999999999999E-2</v>
+        <v>1.9819300000000001E-2</v>
       </c>
       <c r="L79" s="24">
         <v>19.874300000000002</v>
       </c>
       <c r="M79" s="1">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="N79" s="31">
-        <v>4.9996900000000002</v>
+        <v>4.9996799999999997</v>
       </c>
       <c r="O79" s="24">
-        <v>4.9996900000000002</v>
+        <v>4.9996799999999997</v>
       </c>
       <c r="P79" s="24">
-        <v>1.9775800000000001E-5</v>
+        <v>1.9928600000000001E-5</v>
       </c>
       <c r="Q79" s="24">
         <v>1.99987</v>
       </c>
       <c r="R79" s="1">
-        <v>163</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -5581,13 +5581,13 @@
         <v>0.77</v>
       </c>
       <c r="B80" s="5">
-        <v>0.91316200000000003</v>
+        <v>9.7528000000000006</v>
       </c>
       <c r="C80" s="22">
-        <v>3.4781599999999999</v>
+        <v>0.76868300000000001</v>
       </c>
       <c r="D80" s="5">
-        <v>2.7</v>
+        <v>2.6999900000000001</v>
       </c>
       <c r="E80" s="24">
         <v>2.7</v>
@@ -5608,13 +5608,13 @@
         <v>4.9702200000000003</v>
       </c>
       <c r="K80" s="24">
-        <v>1.7741900000000001E-2</v>
+        <v>1.7739499999999998E-2</v>
       </c>
       <c r="L80" s="24">
         <v>19.881</v>
       </c>
       <c r="M80" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N80" s="31">
         <v>4.9996999999999998</v>
@@ -5623,13 +5623,13 @@
         <v>4.9996999999999998</v>
       </c>
       <c r="P80" s="24">
-        <v>1.7512399999999999E-5</v>
+        <v>1.7969E-5</v>
       </c>
       <c r="Q80" s="24">
         <v>1.9998800000000001</v>
       </c>
       <c r="R80" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
@@ -5637,55 +5637,55 @@
         <v>0.78</v>
       </c>
       <c r="B81" s="5">
-        <v>-1.17577</v>
+        <v>-6.8116300000000001</v>
       </c>
       <c r="C81" s="22">
-        <v>8.7886900000000008</v>
+        <v>5.6712999999999996</v>
       </c>
       <c r="D81" s="5">
-        <v>2.80002</v>
+        <v>2.8</v>
       </c>
       <c r="E81" s="24">
-        <v>2.7999000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="F81" s="24">
-        <v>9.6803299999999997</v>
+        <v>9.6799900000000001</v>
       </c>
       <c r="G81" s="24">
-        <v>121.679</v>
+        <v>121.68</v>
       </c>
       <c r="H81" s="22">
-        <v>371</v>
+        <v>280</v>
       </c>
       <c r="I81" s="5">
-        <v>4.9718799999999996</v>
+        <v>4.97187</v>
       </c>
       <c r="J81" s="24">
         <v>4.97187</v>
       </c>
       <c r="K81" s="24">
-        <v>1.5822300000000001E-2</v>
+        <v>1.5822099999999999E-2</v>
       </c>
       <c r="L81" s="24">
         <v>19.887699999999999</v>
       </c>
       <c r="M81" s="1">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="N81" s="31">
-        <v>4.9997299999999996</v>
+        <v>4.9997199999999999</v>
       </c>
       <c r="O81" s="24">
-        <v>4.9996600000000004</v>
+        <v>4.9997199999999999</v>
       </c>
       <c r="P81" s="24">
-        <v>1.8676900000000001E-5</v>
+        <v>1.5901900000000001E-5</v>
       </c>
       <c r="Q81" s="24">
-        <v>1.9998800000000001</v>
+        <v>1.9998899999999999</v>
       </c>
       <c r="R81" s="1">
-        <v>365</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
@@ -5693,10 +5693,10 @@
         <v>0.79</v>
       </c>
       <c r="B82" s="5">
-        <v>1.5213099999999999</v>
+        <v>-7.8851399999999998</v>
       </c>
       <c r="C82" s="22">
-        <v>6.0998000000000001</v>
+        <v>-0.80112099999999997</v>
       </c>
       <c r="D82" s="5">
         <v>2.9</v>
@@ -5711,37 +5711,37 @@
         <v>124.82</v>
       </c>
       <c r="H82" s="22">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="I82" s="5">
-        <v>4.9734800000000003</v>
+        <v>4.97349</v>
       </c>
       <c r="J82" s="24">
         <v>4.97349</v>
       </c>
       <c r="K82" s="24">
-        <v>1.40602E-2</v>
+        <v>1.4057699999999999E-2</v>
       </c>
       <c r="L82" s="24">
         <v>19.894100000000002</v>
       </c>
       <c r="M82" s="1">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="N82" s="31">
-        <v>4.9997299999999996</v>
+        <v>4.9997199999999999</v>
       </c>
       <c r="O82" s="24">
         <v>4.9997299999999996</v>
       </c>
       <c r="P82" s="24">
-        <v>1.4160400000000001E-5</v>
+        <v>1.48608E-5</v>
       </c>
       <c r="Q82" s="24">
         <v>1.9998899999999999</v>
       </c>
       <c r="R82" s="1">
-        <v>310</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
@@ -5749,10 +5749,10 @@
         <v>0.8</v>
       </c>
       <c r="B83" s="5">
-        <v>9.3824000000000005</v>
+        <v>-5.4418100000000003</v>
       </c>
       <c r="C83" s="22">
-        <v>-2.6507700000000001</v>
+        <v>-9.3411500000000007</v>
       </c>
       <c r="D83" s="5">
         <v>3</v>
@@ -5767,37 +5767,37 @@
         <v>128</v>
       </c>
       <c r="H83" s="22">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="I83" s="5">
         <v>4.9750800000000002</v>
       </c>
       <c r="J83" s="24">
-        <v>4.9750500000000004</v>
+        <v>4.97506</v>
       </c>
       <c r="K83" s="24">
-        <v>1.2436600000000001E-2</v>
+        <v>1.2430200000000001E-2</v>
       </c>
       <c r="L83" s="24">
         <v>19.900400000000001</v>
       </c>
       <c r="M83" s="1">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="N83" s="31">
-        <v>4.9997600000000002</v>
+        <v>4.9997499999999997</v>
       </c>
       <c r="O83" s="24">
         <v>4.9997499999999997</v>
       </c>
       <c r="P83" s="24">
-        <v>1.21256E-5</v>
+        <v>1.2505E-5</v>
       </c>
       <c r="Q83" s="24">
         <v>1.9999</v>
       </c>
       <c r="R83" s="1">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
@@ -5805,10 +5805,10 @@
         <v>0.81</v>
       </c>
       <c r="B84" s="5">
-        <v>-3.8001499999999999</v>
+        <v>4.5423799999999996</v>
       </c>
       <c r="C84" s="22">
-        <v>-7.9255300000000002</v>
+        <v>4.7880599999999998</v>
       </c>
       <c r="D84" s="5">
         <v>3.1</v>
@@ -5817,13 +5817,13 @@
         <v>3.1</v>
       </c>
       <c r="F84" s="24">
-        <v>7.2200100000000003</v>
+        <v>7.2199900000000001</v>
       </c>
       <c r="G84" s="24">
         <v>131.22</v>
       </c>
       <c r="H84" s="22">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="I84" s="5">
         <v>4.9766000000000004</v>
@@ -5832,28 +5832,28 @@
         <v>4.9766000000000004</v>
       </c>
       <c r="K84" s="24">
-        <v>1.09537E-2</v>
+        <v>1.09528E-2</v>
       </c>
       <c r="L84" s="24">
         <v>19.906500000000001</v>
       </c>
       <c r="M84" s="1">
-        <v>470</v>
+        <v>172</v>
       </c>
       <c r="N84" s="31">
+        <v>4.9997699999999998</v>
+      </c>
+      <c r="O84" s="24">
         <v>4.9997600000000002</v>
       </c>
-      <c r="O84" s="24">
-        <v>4.9997699999999998</v>
-      </c>
       <c r="P84" s="24">
-        <v>1.1116400000000001E-5</v>
+        <v>1.1035299999999999E-5</v>
       </c>
       <c r="Q84" s="24">
         <v>1.9999100000000001</v>
       </c>
       <c r="R84" s="1">
-        <v>295</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
@@ -5861,10 +5861,10 @@
         <v>0.82000000000000006</v>
       </c>
       <c r="B85" s="5">
-        <v>0.200048</v>
+        <v>8.0790199999999999</v>
       </c>
       <c r="C85" s="22">
-        <v>0.34817900000000002</v>
+        <v>4.73264</v>
       </c>
       <c r="D85" s="5">
         <v>3.2000099999999998</v>
@@ -5873,43 +5873,43 @@
         <v>3.2</v>
       </c>
       <c r="F85" s="24">
-        <v>6.4799800000000003</v>
+        <v>6.47994</v>
       </c>
       <c r="G85" s="24">
         <v>134.47999999999999</v>
       </c>
       <c r="H85" s="22">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I85" s="5">
-        <v>4.9781000000000004</v>
+        <v>4.9780899999999999</v>
       </c>
       <c r="J85" s="24">
         <v>4.9781000000000004</v>
       </c>
       <c r="K85" s="24">
-        <v>9.5940299999999999E-3</v>
+        <v>9.5971100000000007E-3</v>
       </c>
       <c r="L85" s="24">
         <v>19.912500000000001</v>
       </c>
       <c r="M85" s="1">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="N85" s="31">
-        <v>4.99979</v>
+        <v>4.9997800000000003</v>
       </c>
       <c r="O85" s="24">
         <v>4.9997800000000003</v>
       </c>
       <c r="P85" s="24">
-        <v>9.2171599999999993E-6</v>
+        <v>9.6439799999999998E-6</v>
       </c>
       <c r="Q85" s="24">
         <v>1.9999100000000001</v>
       </c>
       <c r="R85" s="1">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
@@ -5917,55 +5917,55 @@
         <v>0.83000000000000007</v>
       </c>
       <c r="B86" s="5">
-        <v>-3.2898700000000001</v>
+        <v>-3.7828900000000001</v>
       </c>
       <c r="C86" s="22">
-        <v>-9.7665699999999998</v>
+        <v>-6.1601800000000004</v>
       </c>
       <c r="D86" s="5">
-        <v>3.3000099999999999</v>
+        <v>3.2999900000000002</v>
       </c>
       <c r="E86" s="24">
         <v>3.3</v>
       </c>
       <c r="F86" s="24">
-        <v>5.7799800000000001</v>
+        <v>5.7800500000000001</v>
       </c>
       <c r="G86" s="24">
         <v>137.78</v>
       </c>
       <c r="H86" s="22">
-        <v>297</v>
+        <v>166</v>
       </c>
       <c r="I86" s="5">
-        <v>4.9795600000000002</v>
+        <v>4.9795499999999997</v>
       </c>
       <c r="J86" s="24">
         <v>4.9795600000000002</v>
       </c>
       <c r="K86" s="24">
-        <v>8.3572000000000004E-3</v>
+        <v>8.3623299999999994E-3</v>
       </c>
       <c r="L86" s="24">
         <v>19.918299999999999</v>
       </c>
       <c r="M86" s="1">
-        <v>295</v>
+        <v>166</v>
       </c>
       <c r="N86" s="31">
         <v>4.9997999999999996</v>
       </c>
       <c r="O86" s="24">
-        <v>4.9997999999999996</v>
+        <v>4.99979</v>
       </c>
       <c r="P86" s="24">
-        <v>8.3898299999999993E-6</v>
+        <v>8.3465099999999995E-6</v>
       </c>
       <c r="Q86" s="24">
         <v>1.9999199999999999</v>
       </c>
       <c r="R86" s="1">
-        <v>469</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
@@ -5973,10 +5973,10 @@
         <v>0.84</v>
       </c>
       <c r="B87" s="5">
-        <v>-1.7978000000000001</v>
+        <v>3.2795999999999998</v>
       </c>
       <c r="C87" s="22">
-        <v>-2.3480099999999999</v>
+        <v>8.5782000000000007</v>
       </c>
       <c r="D87" s="5">
         <v>3.4</v>
@@ -5985,43 +5985,43 @@
         <v>3.4</v>
       </c>
       <c r="F87" s="24">
-        <v>5.1199700000000004</v>
+        <v>5.1199899999999996</v>
       </c>
       <c r="G87" s="24">
         <v>141.12</v>
       </c>
       <c r="H87" s="22">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I87" s="5">
-        <v>4.9809799999999997</v>
+        <v>4.9809900000000003</v>
       </c>
       <c r="J87" s="24">
-        <v>4.9809799999999997</v>
+        <v>4.9809900000000003</v>
       </c>
       <c r="K87" s="24">
-        <v>7.2342600000000002E-3</v>
+        <v>7.2296399999999999E-3</v>
       </c>
       <c r="L87" s="24">
         <v>19.923999999999999</v>
       </c>
       <c r="M87" s="1">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="N87" s="31">
-        <v>4.9998100000000001</v>
+        <v>4.9997999999999996</v>
       </c>
       <c r="O87" s="24">
-        <v>4.9997999999999996</v>
+        <v>4.9998199999999997</v>
       </c>
       <c r="P87" s="24">
-        <v>7.5982600000000003E-6</v>
+        <v>7.2668100000000003E-6</v>
       </c>
       <c r="Q87" s="24">
         <v>1.9999199999999999</v>
       </c>
       <c r="R87" s="1">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
@@ -6029,10 +6029,10 @@
         <v>0.85</v>
       </c>
       <c r="B88" s="5">
-        <v>-4.0498799999999999</v>
+        <v>6.1978099999999996</v>
       </c>
       <c r="C88" s="22">
-        <v>-5.3825500000000002</v>
+        <v>-9.9329999999999998</v>
       </c>
       <c r="D88" s="5">
         <v>3.5</v>
@@ -6047,37 +6047,37 @@
         <v>144.5</v>
       </c>
       <c r="H88" s="22">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="I88" s="5">
-        <v>4.9824000000000002</v>
+        <v>4.9823899999999997</v>
       </c>
       <c r="J88" s="24">
-        <v>4.9823899999999997</v>
+        <v>4.9823700000000004</v>
       </c>
       <c r="K88" s="24">
-        <v>6.19733E-3</v>
+        <v>6.2109899999999996E-3</v>
       </c>
       <c r="L88" s="24">
         <v>19.929600000000001</v>
       </c>
       <c r="M88" s="1">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N88" s="31">
-        <v>4.9998399999999998</v>
+        <v>4.9998300000000002</v>
       </c>
       <c r="O88" s="24">
-        <v>4.9998199999999997</v>
+        <v>4.9997999999999996</v>
       </c>
       <c r="P88" s="24">
-        <v>5.8764299999999997E-6</v>
+        <v>7.1329900000000003E-6</v>
       </c>
       <c r="Q88" s="24">
-        <v>1.99993</v>
+        <v>1.9999199999999999</v>
       </c>
       <c r="R88" s="1">
-        <v>302</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
@@ -6085,40 +6085,40 @@
         <v>0.86</v>
       </c>
       <c r="B89" s="5">
-        <v>3.8030300000000001</v>
+        <v>9.5735899999999999E-2</v>
       </c>
       <c r="C89" s="22">
-        <v>-8.0392399999999995</v>
+        <v>-0.80534300000000003</v>
       </c>
       <c r="D89" s="5">
-        <v>3.6</v>
+        <v>3.6000100000000002</v>
       </c>
       <c r="E89" s="24">
         <v>3.6</v>
       </c>
       <c r="F89" s="24">
-        <v>3.92</v>
+        <v>3.9199700000000002</v>
       </c>
       <c r="G89" s="24">
         <v>147.91999999999999</v>
       </c>
       <c r="H89" s="22">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="I89" s="5">
         <v>4.9837499999999997</v>
       </c>
       <c r="J89" s="24">
-        <v>4.9837400000000001</v>
+        <v>4.9837499999999997</v>
       </c>
       <c r="K89" s="24">
-        <v>5.2867299999999999E-3</v>
+        <v>5.2818600000000002E-3</v>
       </c>
       <c r="L89" s="24">
         <v>19.934999999999999</v>
       </c>
       <c r="M89" s="1">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="N89" s="31">
         <v>4.9998399999999998</v>
@@ -6127,13 +6127,13 @@
         <v>4.9998399999999998</v>
       </c>
       <c r="P89" s="24">
-        <v>5.3182399999999996E-6</v>
+        <v>5.2634100000000001E-6</v>
       </c>
       <c r="Q89" s="24">
-        <v>1.99993</v>
+        <v>1.9999400000000001</v>
       </c>
       <c r="R89" s="1">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -6141,10 +6141,10 @@
         <v>0.87</v>
       </c>
       <c r="B90" s="5">
-        <v>4.8265200000000004</v>
+        <v>-8.0027100000000004</v>
       </c>
       <c r="C90" s="22">
-        <v>-0.28967599999999999</v>
+        <v>3.2912300000000001</v>
       </c>
       <c r="D90" s="5">
         <v>3.7</v>
@@ -6153,13 +6153,13 @@
         <v>3.7</v>
       </c>
       <c r="F90" s="24">
-        <v>3.38</v>
+        <v>3.3799899999999998</v>
       </c>
       <c r="G90" s="24">
         <v>151.38</v>
       </c>
       <c r="H90" s="22">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I90" s="5">
         <v>4.98508</v>
@@ -6168,28 +6168,28 @@
         <v>4.98508</v>
       </c>
       <c r="K90" s="24">
-        <v>4.4523799999999997E-3</v>
+        <v>4.4519599999999996E-3</v>
       </c>
       <c r="L90" s="24">
         <v>19.9404</v>
       </c>
       <c r="M90" s="1">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="N90" s="31">
         <v>4.9998500000000003</v>
       </c>
       <c r="O90" s="24">
-        <v>4.99986</v>
+        <v>4.9998500000000003</v>
       </c>
       <c r="P90" s="24">
-        <v>4.1652000000000004E-6</v>
+        <v>4.4008000000000003E-6</v>
       </c>
       <c r="Q90" s="24">
         <v>1.9999400000000001</v>
       </c>
       <c r="R90" s="1">
-        <v>163</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
@@ -6197,10 +6197,10 @@
         <v>0.88</v>
       </c>
       <c r="B91" s="5">
-        <v>-0.31496400000000002</v>
+        <v>-3.1467000000000001</v>
       </c>
       <c r="C91" s="22">
-        <v>8.3121500000000008</v>
+        <v>-3.18486</v>
       </c>
       <c r="D91" s="5">
         <v>3.8</v>
@@ -6209,28 +6209,28 @@
         <v>3.8</v>
       </c>
       <c r="F91" s="24">
-        <v>2.8799899999999998</v>
+        <v>2.88</v>
       </c>
       <c r="G91" s="24">
         <v>154.88</v>
       </c>
       <c r="H91" s="22">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="I91" s="5">
         <v>4.9863799999999996</v>
       </c>
       <c r="J91" s="24">
-        <v>4.9863900000000001</v>
+        <v>4.9863799999999996</v>
       </c>
       <c r="K91" s="24">
-        <v>3.7084499999999999E-3</v>
+        <v>3.70908E-3</v>
       </c>
       <c r="L91" s="24">
         <v>19.945599999999999</v>
       </c>
       <c r="M91" s="1">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="N91" s="31">
         <v>4.99986</v>
@@ -6239,13 +6239,13 @@
         <v>4.99986</v>
       </c>
       <c r="P91" s="24">
-        <v>3.7311600000000001E-6</v>
+        <v>3.7120499999999999E-6</v>
       </c>
       <c r="Q91" s="24">
         <v>1.9999499999999999</v>
       </c>
       <c r="R91" s="1">
-        <v>411</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
@@ -6253,10 +6253,10 @@
         <v>0.89</v>
       </c>
       <c r="B92" s="5">
-        <v>-2.1549200000000002</v>
+        <v>7.9566999999999997</v>
       </c>
       <c r="C92" s="22">
-        <v>6.8612000000000002</v>
+        <v>6.6966400000000004</v>
       </c>
       <c r="D92" s="5">
         <v>3.9</v>
@@ -6271,37 +6271,37 @@
         <v>158.41999999999999</v>
       </c>
       <c r="H92" s="22">
-        <v>264</v>
+        <v>168</v>
       </c>
       <c r="I92" s="5">
         <v>4.98766</v>
       </c>
       <c r="J92" s="24">
-        <v>4.9876500000000004</v>
+        <v>4.98766</v>
       </c>
       <c r="K92" s="24">
-        <v>3.0482999999999999E-3</v>
+        <v>3.0464699999999999E-3</v>
       </c>
       <c r="L92" s="24">
-        <v>19.950600000000001</v>
+        <v>19.950700000000001</v>
       </c>
       <c r="M92" s="1">
-        <v>262</v>
+        <v>168</v>
       </c>
       <c r="N92" s="31">
-        <v>4.9998800000000001</v>
+        <v>4.9998699999999996</v>
       </c>
       <c r="O92" s="24">
-        <v>4.9998800000000001</v>
+        <v>4.9998699999999996</v>
       </c>
       <c r="P92" s="24">
-        <v>2.9518299999999998E-6</v>
+        <v>3.2930699999999999E-6</v>
       </c>
       <c r="Q92" s="24">
         <v>1.9999499999999999</v>
       </c>
       <c r="R92" s="1">
-        <v>409</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
@@ -6309,25 +6309,25 @@
         <v>0.9</v>
       </c>
       <c r="B93" s="5">
-        <v>-0.97385299999999997</v>
+        <v>-9.3409200000000006</v>
       </c>
       <c r="C93" s="22">
-        <v>-6.9973200000000002</v>
+        <v>7.6725500000000002</v>
       </c>
       <c r="D93" s="5">
-        <v>3.9999899999999999</v>
+        <v>4</v>
       </c>
       <c r="E93" s="24">
-        <v>3.9999899999999999</v>
+        <v>4</v>
       </c>
       <c r="F93" s="24">
-        <v>2.0000399999999998</v>
+        <v>2</v>
       </c>
       <c r="G93" s="24">
         <v>162</v>
       </c>
       <c r="H93" s="22">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="I93" s="5">
         <v>4.9889000000000001</v>
@@ -6336,13 +6336,13 @@
         <v>4.9889000000000001</v>
       </c>
       <c r="K93" s="24">
-        <v>2.4635099999999999E-3</v>
+        <v>2.46343E-3</v>
       </c>
       <c r="L93" s="24">
         <v>19.9556</v>
       </c>
       <c r="M93" s="1">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="N93" s="31">
         <v>4.9998899999999997</v>
@@ -6351,13 +6351,13 @@
         <v>4.9998899999999997</v>
       </c>
       <c r="P93" s="24">
-        <v>2.46288E-6</v>
+        <v>2.3413299999999999E-6</v>
       </c>
       <c r="Q93" s="24">
         <v>1.99996</v>
       </c>
       <c r="R93" s="1">
-        <v>301</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
@@ -6365,10 +6365,10 @@
         <v>0.91</v>
       </c>
       <c r="B94" s="5">
-        <v>-8.6708400000000001</v>
+        <v>-1.1862299999999999</v>
       </c>
       <c r="C94" s="22">
-        <v>0.80932300000000001</v>
+        <v>-0.159693</v>
       </c>
       <c r="D94" s="5">
         <v>4.0999999999999996</v>
@@ -6377,43 +6377,43 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="F94" s="24">
-        <v>1.61999</v>
+        <v>1.62001</v>
       </c>
       <c r="G94" s="24">
         <v>165.62</v>
       </c>
       <c r="H94" s="22">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="I94" s="5">
-        <v>4.9901299999999997</v>
+        <v>4.9901200000000001</v>
       </c>
       <c r="J94" s="24">
         <v>4.9901200000000001</v>
       </c>
       <c r="K94" s="24">
-        <v>1.95082E-3</v>
+        <v>1.9531599999999998E-3</v>
       </c>
       <c r="L94" s="24">
         <v>19.9605</v>
       </c>
       <c r="M94" s="1">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c r="N94" s="31">
-        <v>4.9999000000000002</v>
+        <v>4.9999099999999999</v>
       </c>
       <c r="O94" s="24">
         <v>4.9999000000000002</v>
       </c>
       <c r="P94" s="24">
-        <v>1.95135E-6</v>
+        <v>1.79088E-6</v>
       </c>
       <c r="Q94" s="24">
         <v>1.99996</v>
       </c>
       <c r="R94" s="1">
-        <v>399</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
@@ -6421,10 +6421,10 @@
         <v>0.92</v>
       </c>
       <c r="B95" s="5">
-        <v>-3.6023700000000001</v>
+        <v>8.9656099999999999</v>
       </c>
       <c r="C95" s="22">
-        <v>7.4805099999999998</v>
+        <v>-9.0177899999999998</v>
       </c>
       <c r="D95" s="5">
         <v>4.2</v>
@@ -6433,13 +6433,13 @@
         <v>4.2</v>
       </c>
       <c r="F95" s="24">
-        <v>1.27999</v>
+        <v>1.28</v>
       </c>
       <c r="G95" s="24">
         <v>169.28</v>
       </c>
       <c r="H95" s="22">
-        <v>407</v>
+        <v>165</v>
       </c>
       <c r="I95" s="5">
         <v>4.9913100000000004</v>
@@ -6448,28 +6448,28 @@
         <v>4.9913100000000004</v>
       </c>
       <c r="K95" s="24">
-        <v>1.5095499999999999E-3</v>
+        <v>1.50965E-3</v>
       </c>
       <c r="L95" s="24">
         <v>19.965299999999999</v>
       </c>
       <c r="M95" s="1">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="N95" s="31">
         <v>4.9999099999999999</v>
       </c>
       <c r="O95" s="24">
-        <v>4.9999200000000004</v>
+        <v>4.9999099999999999</v>
       </c>
       <c r="P95" s="24">
-        <v>1.5582299999999999E-6</v>
+        <v>1.46036E-6</v>
       </c>
       <c r="Q95" s="24">
-        <v>1.99996</v>
+        <v>1.99997</v>
       </c>
       <c r="R95" s="1">
-        <v>262</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
@@ -6477,10 +6477,10 @@
         <v>0.93</v>
       </c>
       <c r="B96" s="5">
-        <v>2.1774499999999999</v>
+        <v>-0.96881099999999998</v>
       </c>
       <c r="C96" s="22">
-        <v>0.95283499999999999</v>
+        <v>-8.10276</v>
       </c>
       <c r="D96" s="5">
         <v>4.3</v>
@@ -6489,28 +6489,28 @@
         <v>4.3</v>
       </c>
       <c r="F96" s="24">
-        <v>0.98000699999999996</v>
+        <v>0.97999400000000003</v>
       </c>
       <c r="G96" s="24">
         <v>172.98</v>
       </c>
       <c r="H96" s="22">
-        <v>165</v>
+        <v>277</v>
       </c>
       <c r="I96" s="5">
-        <v>4.9924799999999996</v>
+        <v>4.9924999999999997</v>
       </c>
       <c r="J96" s="24">
         <v>4.9924799999999996</v>
       </c>
       <c r="K96" s="24">
-        <v>1.1315100000000001E-3</v>
+        <v>1.1281100000000001E-3</v>
       </c>
       <c r="L96" s="24">
-        <v>19.969899999999999</v>
+        <v>19.97</v>
       </c>
       <c r="M96" s="1">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="N96" s="31">
         <v>4.99993</v>
@@ -6519,13 +6519,13 @@
         <v>4.9999200000000004</v>
       </c>
       <c r="P96" s="24">
-        <v>1.1198399999999999E-6</v>
+        <v>1.0911400000000001E-6</v>
       </c>
       <c r="Q96" s="24">
         <v>1.99997</v>
       </c>
       <c r="R96" s="1">
-        <v>310</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
@@ -6533,55 +6533,55 @@
         <v>0.94000000000000006</v>
       </c>
       <c r="B97" s="5">
-        <v>7.8830200000000001</v>
+        <v>0.47422700000000001</v>
       </c>
       <c r="C97" s="22">
-        <v>-9.0273900000000005</v>
+        <v>6.1663600000000001</v>
       </c>
       <c r="D97" s="5">
-        <v>4.3997200000000003</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E97" s="24">
-        <v>4.4040100000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F97" s="24">
-        <v>0.71554399999999996</v>
+        <v>0.71999599999999997</v>
       </c>
       <c r="G97" s="24">
-        <v>176.79</v>
+        <v>176.72</v>
       </c>
       <c r="H97" s="22">
-        <v>380</v>
+        <v>168</v>
       </c>
       <c r="I97" s="5">
-        <v>4.9935400000000003</v>
+        <v>4.9936199999999999</v>
       </c>
       <c r="J97" s="24">
-        <v>4.9948300000000003</v>
+        <v>4.9936199999999999</v>
       </c>
       <c r="K97" s="24">
-        <v>6.8459399999999996E-4</v>
+        <v>8.1430900000000004E-4</v>
       </c>
       <c r="L97" s="24">
-        <v>19.976700000000001</v>
+        <v>19.974499999999999</v>
       </c>
       <c r="M97" s="1">
-        <v>380</v>
+        <v>168</v>
       </c>
       <c r="N97" s="31">
-        <v>4.9999099999999999</v>
+        <v>4.99993</v>
       </c>
       <c r="O97" s="24">
-        <v>5.0003200000000003</v>
+        <v>4.9999399999999996</v>
       </c>
       <c r="P97" s="24">
-        <v>1.0927899999999999E-5</v>
+        <v>8.4384500000000005E-7</v>
       </c>
       <c r="Q97" s="24">
-        <v>2.0000499999999999</v>
+        <v>1.99997</v>
       </c>
       <c r="R97" s="1">
-        <v>380</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
@@ -6589,10 +6589,10 @@
         <v>0.95000000000000007</v>
       </c>
       <c r="B98" s="5">
-        <v>4.77841</v>
+        <v>8.2462400000000002</v>
       </c>
       <c r="C98" s="22">
-        <v>7.4990800000000002</v>
+        <v>0.23219899999999999</v>
       </c>
       <c r="D98" s="5">
         <v>4.5</v>
@@ -6601,13 +6601,13 @@
         <v>4.5</v>
       </c>
       <c r="F98" s="24">
-        <v>0.50000199999999995</v>
+        <v>0.50000299999999998</v>
       </c>
       <c r="G98" s="24">
         <v>180.5</v>
       </c>
       <c r="H98" s="22">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I98" s="5">
         <v>4.9947400000000002</v>
@@ -6616,13 +6616,13 @@
         <v>4.9947400000000002</v>
       </c>
       <c r="K98" s="24">
-        <v>5.5340100000000002E-4</v>
+        <v>5.5347899999999995E-4</v>
       </c>
       <c r="L98" s="24">
         <v>19.978999999999999</v>
       </c>
       <c r="M98" s="1">
-        <v>167</v>
+        <v>281</v>
       </c>
       <c r="N98" s="31">
         <v>4.9999500000000001</v>
@@ -6631,13 +6631,13 @@
         <v>4.9999500000000001</v>
       </c>
       <c r="P98" s="24">
-        <v>5.3947900000000004E-7</v>
+        <v>5.5466000000000002E-7</v>
       </c>
       <c r="Q98" s="24">
         <v>1.9999800000000001</v>
       </c>
       <c r="R98" s="1">
-        <v>167</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
@@ -6645,10 +6645,10 @@
         <v>0.96</v>
       </c>
       <c r="B99" s="5">
-        <v>-5.3167999999999997</v>
+        <v>1.2071700000000001</v>
       </c>
       <c r="C99" s="22">
-        <v>-1.89655</v>
+        <v>-1.7734700000000001</v>
       </c>
       <c r="D99" s="5">
         <v>4.5999999999999996</v>
@@ -6657,43 +6657,43 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="F99" s="24">
-        <v>0.32</v>
+        <v>0.31999899999999998</v>
       </c>
       <c r="G99" s="24">
         <v>184.32</v>
       </c>
       <c r="H99" s="22">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="I99" s="5">
-        <v>4.9958499999999999</v>
+        <v>4.9958400000000003</v>
       </c>
       <c r="J99" s="24">
         <v>4.9958400000000003</v>
       </c>
       <c r="K99" s="24">
-        <v>3.45139E-4</v>
+        <v>3.4633800000000002E-4</v>
       </c>
       <c r="L99" s="24">
         <v>19.9834</v>
       </c>
       <c r="M99" s="1">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N99" s="31">
-        <v>4.9999700000000002</v>
+        <v>4.9999599999999997</v>
       </c>
       <c r="O99" s="24">
-        <v>4.9999599999999997</v>
+        <v>4.9999500000000001</v>
       </c>
       <c r="P99" s="24">
-        <v>2.8144400000000002E-7</v>
+        <v>4.2627099999999999E-7</v>
       </c>
       <c r="Q99" s="24">
-        <v>1.9999899999999999</v>
+        <v>1.9999800000000001</v>
       </c>
       <c r="R99" s="1">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
@@ -6701,10 +6701,10 @@
         <v>0.97</v>
       </c>
       <c r="B100" s="5">
-        <v>-5.9406499999999998</v>
+        <v>-6.8040900000000004</v>
       </c>
       <c r="C100" s="22">
-        <v>-4.7201399999999998</v>
+        <v>-4.7198700000000002</v>
       </c>
       <c r="D100" s="5">
         <v>4.7</v>
@@ -6713,13 +6713,13 @@
         <v>4.7</v>
       </c>
       <c r="F100" s="24">
-        <v>0.18</v>
+        <v>0.18000099999999999</v>
       </c>
       <c r="G100" s="24">
         <v>188.18</v>
       </c>
       <c r="H100" s="22">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="I100" s="5">
         <v>4.9969099999999997</v>
@@ -6728,28 +6728,28 @@
         <v>4.9969099999999997</v>
       </c>
       <c r="K100" s="24">
-        <v>1.9118600000000001E-4</v>
+        <v>1.9126200000000001E-4</v>
       </c>
       <c r="L100" s="24">
         <v>19.9876</v>
       </c>
       <c r="M100" s="1">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="N100" s="31">
         <v>4.9999700000000002</v>
       </c>
       <c r="O100" s="24">
-        <v>4.9999599999999997</v>
+        <v>4.9999700000000002</v>
       </c>
       <c r="P100" s="24">
-        <v>2.3941499999999998E-7</v>
+        <v>2.1169199999999999E-7</v>
       </c>
       <c r="Q100" s="24">
         <v>1.9999899999999999</v>
       </c>
       <c r="R100" s="1">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
@@ -6757,10 +6757,10 @@
         <v>0.98</v>
       </c>
       <c r="B101" s="5">
-        <v>5.5583799999999997</v>
+        <v>2.0382600000000002</v>
       </c>
       <c r="C101" s="22">
-        <v>-9.1979100000000003</v>
+        <v>1.99261</v>
       </c>
       <c r="D101" s="5">
         <v>4.8</v>
@@ -6769,13 +6769,13 @@
         <v>4.8</v>
       </c>
       <c r="F101" s="24">
-        <v>8.0000299999999996E-2</v>
+        <v>7.9997600000000002E-2</v>
       </c>
       <c r="G101" s="24">
         <v>192.08</v>
       </c>
       <c r="H101" s="22">
-        <v>301</v>
+        <v>169</v>
       </c>
       <c r="I101" s="5">
         <v>4.99796</v>
@@ -6784,13 +6784,13 @@
         <v>4.99796</v>
       </c>
       <c r="K101" s="24">
-        <v>8.3304400000000002E-5</v>
+        <v>8.3291600000000001E-5</v>
       </c>
       <c r="L101" s="24">
         <v>19.991800000000001</v>
       </c>
       <c r="M101" s="1">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="N101" s="31">
         <v>4.9999799999999999</v>
@@ -6799,13 +6799,13 @@
         <v>4.9999799999999999</v>
       </c>
       <c r="P101" s="24">
-        <v>8.94109E-8</v>
+        <v>8.61686E-8</v>
       </c>
       <c r="Q101" s="24">
         <v>1.9999899999999999</v>
       </c>
       <c r="R101" s="1">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
@@ -6813,10 +6813,10 @@
         <v>0.99</v>
       </c>
       <c r="B102" s="5">
-        <v>5.8148200000000001</v>
+        <v>4.6425799999999997</v>
       </c>
       <c r="C102" s="22">
-        <v>7.5683499999999997</v>
+        <v>-9.1154799999999998</v>
       </c>
       <c r="D102" s="5">
         <v>4.9000000000000004</v>
@@ -6825,13 +6825,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="F102" s="24">
-        <v>2.0000299999999999E-2</v>
+        <v>1.9999900000000001E-2</v>
       </c>
       <c r="G102" s="24">
         <v>196.02</v>
       </c>
       <c r="H102" s="22">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="I102" s="5">
         <v>4.99899</v>
@@ -6840,13 +6840,13 @@
         <v>4.99899</v>
       </c>
       <c r="K102" s="24">
-        <v>2.0360499999999999E-5</v>
+        <v>2.0411299999999999E-5</v>
       </c>
       <c r="L102" s="24">
         <v>19.995999999999999</v>
       </c>
       <c r="M102" s="1">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="N102" s="31">
         <v>4.9999900000000004</v>
@@ -6855,13 +6855,13 @@
         <v>4.9999900000000004</v>
       </c>
       <c r="P102" s="24">
-        <v>9.1907199999999995E-9</v>
+        <v>2.19665E-8</v>
       </c>
       <c r="Q102" s="24">
         <v>2</v>
       </c>
       <c r="R102" s="1">
-        <v>167</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6869,55 +6869,55 @@
         <v>1</v>
       </c>
       <c r="B103" s="6">
-        <v>-8.13049</v>
+        <v>-4.0266799999999998</v>
       </c>
       <c r="C103" s="23">
-        <v>-4.9472100000000001</v>
+        <v>7.4014699999999998</v>
       </c>
       <c r="D103" s="6">
-        <v>4.9999900000000004</v>
+        <v>5</v>
       </c>
       <c r="E103" s="25">
-        <v>4.9999900000000004</v>
+        <v>5</v>
       </c>
       <c r="F103" s="25">
-        <v>1.5469600000000001E-10</v>
+        <v>1.1867100000000001E-12</v>
       </c>
       <c r="G103" s="25">
         <v>200</v>
       </c>
       <c r="H103" s="23">
-        <v>159</v>
+        <v>281</v>
       </c>
       <c r="I103" s="6">
-        <v>4.9999900000000004</v>
+        <v>5</v>
       </c>
       <c r="J103" s="25">
-        <v>4.9999900000000004</v>
+        <v>5</v>
       </c>
       <c r="K103" s="25">
-        <v>1.54696E-9</v>
+        <v>1.18671E-11</v>
       </c>
       <c r="L103" s="25">
         <v>20</v>
       </c>
       <c r="M103" s="2">
-        <v>159</v>
+        <v>281</v>
       </c>
       <c r="N103" s="32">
-        <v>4.9999900000000004</v>
+        <v>5</v>
       </c>
       <c r="O103" s="25">
-        <v>4.9999900000000004</v>
+        <v>5</v>
       </c>
       <c r="P103" s="25">
-        <v>1.54696E-8</v>
+        <v>1.18671E-10</v>
       </c>
       <c r="Q103" s="25">
         <v>2</v>
       </c>
       <c r="R103" s="2">
-        <v>159</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/OptimalizationLabs1/proj5_Izworski_Jarek_Klimczyk.xlsx
+++ b/OptimalizationLabs1/proj5_Izworski_Jarek_Klimczyk.xlsx
@@ -3,14 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8838041-2EFD-49B7-B28A-50D9654FE73C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C637FAB-5A41-4D9E-A485-D4BC9861E2EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="1305" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabela 2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Tabela 1'!$P$3:$P$103</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Tabela 1'!$Q$3:$Q$103</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Tabela 2'!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Tabela 2'!$G$2:$G$102</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Tabela 2'!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Tabela 2'!$G$2:$G$102</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Tabela 2'!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Tabela 2'!$G$2:$G$102</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Tabela 1'!$K$3:$K$103</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Tabela 1'!$L$3:$L$103</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Tabela 1'!$F$3:$F$103</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Tabela 1'!$G$3:$G$103</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Tabela 1'!$P$3:$P$103</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Tabela 1'!$Q$3:$Q$103</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Tabela 2'!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Tabela 2'!$G$2:$G$102</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -849,6 +867,2995 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Diagram Pareto dla a = 1 (zależność f1* i f2*)</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Diagram Pareto dla a = 1 (zależność f1* i f2*)</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{7BF31062-7BBC-438D-9755-5FB5523F20C1}" formatIdx="0">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{52159B60-AB1C-4207-9D6A-DCC0A062FC90}" formatIdx="1">
+          <cx:axisId val="2"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{3F888CA4-1B79-4E41-9B8D-E8212C1D402F}" formatIdx="2">
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{19399DCD-493E-4EBE-B805-4C1F870022AE}" formatIdx="3">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Diagram Pareto dla a = 10 (zależność f1* i f2*)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{CDBA99B0-88B4-4551-A9AA-490EE853D325}" formatIdx="0">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{48ABE900-68A6-4028-9B96-EDCD206EA9AD}" formatIdx="1">
+          <cx:axisId val="2"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{FEF4D3B5-F883-44E6-8075-B2AF85415DF1}" formatIdx="2">
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{D816B1E7-F619-4745-AB35-A79C78379BF6}" formatIdx="3">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Diagram Pareto dla a = 100 (zależność f1* i f2*)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{7D074486-81DE-4D0C-82DA-300BD1F38C40}" formatIdx="0">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{3FAA39CE-5A9A-4E53-999E-F21F45A3974F}" formatIdx="1">
+          <cx:axisId val="2"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{9032D779-B109-4964-ACE9-2EBCFDD3541A}" formatIdx="2">
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{E6D91BA1-8311-47F2-A046-18CEDA0F6CEA}" formatIdx="3">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Diagram Pareto (zależność masy i ugięcia)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C550D811-36DC-4D32-ABBE-70734F31292C}" formatIdx="0">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{1DD38CED-AD41-437F-BB88-A08AA871015E}" formatIdx="1">
+          <cx:axisId val="2"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{F84D2707-496C-4991-B802-E281231F395C}" formatIdx="2">
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{D4CA58CA-CF48-40DB-ADEF-1F1E028F06D3}" formatIdx="3">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>417018</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>156402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>775606</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>42102</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Wykres 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D0E65B9-FE1B-456D-93E3-7B299E855277}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2893518" y="20417438"/>
+              <a:ext cx="4549588" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>Ten wykres jest niedostępny w Twojej wersji programu Excel.
+Edytowanie tego kształtu lub zapisanie tego skoroszytu w innym formacie pliku spowoduje trwałe uszkodzenie wykresu.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315364</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>68356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>673953</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>144556</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Wykres 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4065A0-B0CA-46A3-B463-1DBF0C0B01C4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8030614" y="20519892"/>
+              <a:ext cx="4549589" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>Ten wykres jest niedostępny w Twojej wersji programu Excel.
+Edytowanie tego kształtu lub zapisanie tego skoroszytu w innym formacie pliku spowoduje trwałe uszkodzenie wykresu.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>265739</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>44344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>624327</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>120544</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Wykres 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8082C393-801A-41AE-B6FF-0A2F3D72EA42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13219739" y="20495880"/>
+              <a:ext cx="4549588" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>Ten wykres jest niedostępny w Twojej wersji programu Excel.
+Edytowanie tego kształtu lub zapisanie tego skoroszytu w innym formacie pliku spowoduje trwałe uszkodzenie wykresu.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>113181</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>471769</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13166</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Wykres 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AAC820D-7805-48E2-AFBA-68BC12AE9148}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8472769" y="698966"/>
+              <a:ext cx="4594412" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>Ten wykres jest niedostępny w Twojej wersji programu Excel.
+Edytowanie tego kształtu lub zapisanie tego skoroszytu w innym formacie pliku spowoduje trwałe uszkodzenie wykresu.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
@@ -1172,8 +4179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6931,6 +9938,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6938,8 +9946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6978,1217 +9986,2632 @@
       <c r="A2" s="11">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="4">
+        <v>0.80952299999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.8666199999999998E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.200293</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4.9574300000000002E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3.01553</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4.3642700000000001E-5</v>
+      </c>
+      <c r="H2" s="12">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>0.01</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="5">
+        <v>0.57875100000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.27972E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.20014899999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.9574300000000002E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3.01336</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.3548599999999998E-5</v>
+      </c>
+      <c r="H3" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0.02</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="5">
+        <v>0.283078</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.24459E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.20002700000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.9574300000000002E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>3.01152</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.3468699999999999E-5</v>
+      </c>
+      <c r="H4" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>0.03</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="5">
+        <v>0.85409000000000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.0145600000000002E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.9574300000000002E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.01553</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.3642700000000001E-5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0.04</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="5">
+        <v>0.98060999999999998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.5461199999999998E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.9048099999999997E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2.9518499999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.5546000000000001E-5</v>
+      </c>
+      <c r="H6" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>0.05</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="9"/>
+      <c r="B7" s="5">
+        <v>0.41226400000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.19258E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.20008200000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.7345199999999997E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.7475399999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.2294799999999999E-5</v>
+      </c>
+      <c r="H7" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>0.06</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="9"/>
+      <c r="B8" s="5">
+        <v>0.55571999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.7438899999999997E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.20011200000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.5967500000000001E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2.5903499999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5.8878300000000002E-5</v>
+      </c>
+      <c r="H8" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="9"/>
+      <c r="B9" s="5">
+        <v>0.839395</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.4827999999999998E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.4589799999999999E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2.4396200000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6.6679899999999998E-5</v>
+      </c>
+      <c r="H9" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>0.08</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="9"/>
+      <c r="B10" s="5">
+        <v>0.91381100000000004</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.2988100000000001E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.3738399999999997E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2.34734</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.2025699999999997E-5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>0.09</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="9"/>
+      <c r="B11" s="5">
+        <v>0.89296600000000004</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.2580699999999997E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.2886899999999999E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2.25684</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7.7918199999999995E-5</v>
+      </c>
+      <c r="H11" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>0.1</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="9"/>
+      <c r="B12" s="5">
+        <v>0.93875200000000003</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.4627300000000002E-2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.1834499999999997E-2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2.1474299999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8.6059900000000006E-5</v>
+      </c>
+      <c r="H12" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>0.11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="9"/>
+      <c r="B13" s="5">
+        <v>0.96968699999999997</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.9841700000000001E-2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.0982999999999999E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2.0609099999999998</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9.3437700000000002E-5</v>
+      </c>
+      <c r="H13" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>0.12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="9"/>
+      <c r="B14" s="5">
+        <v>0.320573</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.1848700000000001E-2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.20005899999999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.0657800000000001E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2.0259499999999999</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9.6124699999999998E-5</v>
+      </c>
+      <c r="H14" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>0.13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="9"/>
+      <c r="B15" s="5">
+        <v>0.85462099999999996</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.4447999999999999E-2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.9605300000000003E-2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.9246799999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.0713300000000001E-4</v>
+      </c>
+      <c r="H15" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="9"/>
+      <c r="B16" s="5">
+        <v>0.41275200000000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.0782100000000001E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.200076</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.9280099999999998E-2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1.8911500000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.1036599999999999E-4</v>
+      </c>
+      <c r="H16" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>0.15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="9"/>
+      <c r="B17" s="5">
+        <v>0.31067099999999997</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.5644500000000003E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.200043</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.8753900000000001E-2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1.8405100000000001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.16425E-4</v>
+      </c>
+      <c r="H17" s="9">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>0.16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="9"/>
+      <c r="B18" s="5">
+        <v>0.81866799999999995</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.3222000000000002E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.8227700000000003E-2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1.79311</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.2343200000000001E-4</v>
+      </c>
+      <c r="H18" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>0.17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="5">
+        <v>0.97474400000000005</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.8281799999999999E-2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.7902400000000003E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1.7627299999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.27723E-4</v>
+      </c>
+      <c r="H19" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>0.18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="5">
+        <v>0.50665099999999996</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4.80895E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.200132</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.7376199999999998E-2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1.7127399999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.3474400000000001E-4</v>
+      </c>
+      <c r="H20" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>0.19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="5">
+        <v>0.260911</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.9149600000000001E-2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.20002900000000001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.7051000000000001E-2</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1.6821999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.39321E-4</v>
+      </c>
+      <c r="H21" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>0.2</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="5">
+        <v>0.66798800000000003</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.2755199999999998E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.6524800000000003E-2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.47863E-4</v>
+      </c>
+      <c r="H22" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>0.21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="5">
+        <v>0.433118</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.8457999999999999E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.20007800000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.5998500000000003E-2</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1.5883799999999999</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.56458E-4</v>
+      </c>
+      <c r="H23" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>0.22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="5">
+        <v>0.45140999999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.5671899999999999E-2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.20011599999999999</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.5673400000000001E-2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1.56012</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.6233299999999999E-4</v>
+      </c>
+      <c r="H24" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>0.23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="5">
+        <v>0.799786</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3.1552900000000002E-2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.5673299999999998E-2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1.56148</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.6276600000000001E-4</v>
+      </c>
+      <c r="H25" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>0.24</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="9"/>
+      <c r="B26" s="5">
+        <v>0.720607</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.1257700000000001E-2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.20020099999999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3.5147100000000001E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1.5150600000000001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.7249600000000001E-4</v>
+      </c>
+      <c r="H26" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>0.25</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="5">
+        <v>0.60482800000000003</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4.3030899999999997E-2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.20016800000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.4620900000000003E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1.4697899999999999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.83134E-4</v>
+      </c>
+      <c r="H27" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>0.26</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="9"/>
+      <c r="B28" s="5">
+        <v>0.29606900000000003</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.6345599999999998E-2</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0.200047</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.4620900000000003E-2</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1.4689000000000001</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.8280299999999999E-4</v>
+      </c>
+      <c r="H28" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>0.27</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="9"/>
+      <c r="B29" s="5">
+        <v>0.88741899999999996</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.0841399999999999E-2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.20026099999999999</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3.4295600000000002E-2</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1.4429700000000001</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.9044600000000001E-4</v>
+      </c>
+      <c r="H29" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="9"/>
+      <c r="B30" s="5">
+        <v>0.96881099999999998</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.0578300000000001E-2</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.20028899999999999</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.3769399999999998E-2</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1.39923</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.0268200000000001E-4</v>
+      </c>
+      <c r="H30" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="9"/>
+      <c r="B31" s="5">
+        <v>0.87475199999999997</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4.7735899999999998E-2</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.20028699999999999</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3.3769399999999998E-2</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1.3992199999999999</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2.0267700000000001E-4</v>
+      </c>
+      <c r="H31" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>0.3</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="9"/>
+      <c r="B32" s="5">
+        <v>0.40468399999999999</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.6202299999999999E-2</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0.200102</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3.34442E-2</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1.37113</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2.1009199999999999E-4</v>
+      </c>
+      <c r="H32" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>0.31</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="9"/>
+      <c r="B33" s="5">
+        <v>0.68722099999999997</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.0283300000000001E-2</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3.2918000000000003E-2</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1.32884</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2.2411800000000001E-4</v>
+      </c>
+      <c r="H33" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>0.32</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="9"/>
+      <c r="B34" s="5">
+        <v>0.30000700000000002</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.6892299999999999E-2</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0.20003199999999999</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3.2918000000000003E-2</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1.32786</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2.23618E-4</v>
+      </c>
+      <c r="H34" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>0.33</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="9"/>
+      <c r="B35" s="5">
+        <v>0.79600700000000002</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.03188E-2</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0.20022100000000001</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3.2918000000000003E-2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1.32911</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2.24253E-4</v>
+      </c>
+      <c r="H35" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>0.34</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="9"/>
+      <c r="B36" s="5">
+        <v>0.379029</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.3630000000000002E-2</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0.20006399999999999</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3.2391700000000002E-2</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1.2859400000000001</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2.3861999999999999E-4</v>
+      </c>
+      <c r="H36" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>0.35000000000000003</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="9"/>
+      <c r="B37" s="5">
+        <v>0.28335700000000003</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4.4860299999999999E-2</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.20002600000000001</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3.2066499999999998E-2</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1.2600100000000001</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2.4831000000000001E-4</v>
+      </c>
+      <c r="H37" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>0.36</v>
       </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="9"/>
+      <c r="B38" s="5">
+        <v>0.49314999999999998</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.56349E-2</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0.20014399999999999</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3.2066499999999998E-2</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1.2607600000000001</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2.4874800000000002E-4</v>
+      </c>
+      <c r="H38" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>0.37</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="9"/>
+      <c r="B39" s="5">
+        <v>0.81875500000000001</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.7774600000000002E-2</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3.15403E-2</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1.22062</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2.66364E-4</v>
+      </c>
+      <c r="H39" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>0.38</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="9"/>
+      <c r="B40" s="5">
+        <v>0.58009999999999995</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3.34379E-2</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3.15403E-2</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1.21994</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2.6591700000000001E-4</v>
+      </c>
+      <c r="H40" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>0.39</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="9"/>
+      <c r="B41" s="5">
+        <v>0.74270800000000003</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3.24587E-2</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3.1215099999999999E-2</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1.1949099999999999</v>
+      </c>
+      <c r="G41" s="1">
+        <v>2.7717399999999999E-4</v>
+      </c>
+      <c r="H41" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>0.4</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="9"/>
+      <c r="B42" s="5">
+        <v>0.50636999999999999</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.6475799999999999E-2</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3.1215099999999999E-2</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1.1944300000000001</v>
+      </c>
+      <c r="G42" s="1">
+        <v>2.7683500000000002E-4</v>
+      </c>
+      <c r="H42" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>0.41000000000000003</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="9"/>
+      <c r="B43" s="5">
+        <v>0.877162</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4.5947599999999998E-2</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3.0688799999999999E-2</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1.15561</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2.9717699999999998E-4</v>
+      </c>
+      <c r="H43" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>0.42</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="9"/>
+      <c r="B44" s="5">
+        <v>0.275978</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4.3095300000000003E-2</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.20002700000000001</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3.0688799999999999E-2</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1.1540699999999999</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2.9599299999999998E-4</v>
+      </c>
+      <c r="H44" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>0.43</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="9"/>
+      <c r="B45" s="5">
+        <v>0.81891700000000001</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4.1494499999999997E-2</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3.0162600000000001E-2</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1.11632</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3.1846499999999998E-4</v>
+      </c>
+      <c r="H45" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>0.44</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="9"/>
+      <c r="B46" s="5">
+        <v>0.72238599999999997</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4.5994899999999998E-2</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.20024</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3.0162600000000001E-2</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1.11602</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3.1820999999999998E-4</v>
+      </c>
+      <c r="H46" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>0.45</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="9"/>
+      <c r="B47" s="5">
+        <v>0.79132100000000005</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4.2271999999999997E-2</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3.0162600000000001E-2</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1.11632</v>
+      </c>
+      <c r="G47" s="1">
+        <v>3.1846499999999998E-4</v>
+      </c>
+      <c r="H47" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>0.46</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="9"/>
+      <c r="B48" s="5">
+        <v>0.29361199999999998</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.2226300000000001E-2</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.20003799999999999</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2.98374E-2</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1.0909899999999999</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3.3131000000000002E-4</v>
+      </c>
+      <c r="H48" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>0.47000000000000003</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="9"/>
+      <c r="B49" s="5">
+        <v>0.350769</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.8270399999999999E-2</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.20005800000000001</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2.98374E-2</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1.0911</v>
+      </c>
+      <c r="G49" s="1">
+        <v>3.3141000000000003E-4</v>
+      </c>
+      <c r="H49" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>0.48</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="9"/>
+      <c r="B50" s="5">
+        <v>0.71551500000000001</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4.8209700000000001E-2</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0.200207</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2.9311199999999999E-2</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1.0537300000000001</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3.5665000000000002E-4</v>
+      </c>
+      <c r="H50" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>0.49</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="9"/>
+      <c r="B51" s="5">
+        <v>0.65758700000000003</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.61056E-2</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2.9311199999999999E-2</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1.0536000000000001</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3.56514E-4</v>
+      </c>
+      <c r="H51" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>0.5</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="9"/>
+      <c r="B52" s="5">
+        <v>0.55625899999999995</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.4277699999999999E-2</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0.20011200000000001</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2.8784899999999999E-2</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1.0157499999999999</v>
+      </c>
+      <c r="G52" s="1">
+        <v>3.8290999999999998E-4</v>
+      </c>
+      <c r="H52" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>0.51</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="9"/>
+      <c r="B53" s="5">
+        <v>0.373276</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.1762E-2</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0.20007</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2.8785000000000002E-2</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1.0155400000000001</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3.8266800000000002E-4</v>
+      </c>
+      <c r="H53" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>0.52</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="9"/>
+      <c r="B54" s="5">
+        <v>0.35120899999999999</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.3783399999999999E-2</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.200069</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2.8785000000000002E-2</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1.0155400000000001</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3.8266400000000001E-4</v>
+      </c>
+      <c r="H54" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>0.53</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="9"/>
+      <c r="B55" s="5">
+        <v>0.58125000000000004</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3.9650299999999999E-2</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.20016600000000001</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2.8459700000000001E-2</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.99319800000000003</v>
+      </c>
+      <c r="G55" s="1">
+        <v>4.0104000000000002E-4</v>
+      </c>
+      <c r="H55" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>0.54</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="9"/>
+      <c r="B56" s="5">
+        <v>0.78764000000000001</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.49602E-2</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2.8459700000000001E-2</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.99382899999999996</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4.0180499999999998E-4</v>
+      </c>
+      <c r="H56" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="9"/>
+      <c r="B57" s="5">
+        <v>0.59275800000000001</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4.7450399999999997E-2</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.20016300000000001</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2.79335E-2</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.95679199999999998</v>
+      </c>
+      <c r="G57" s="1">
+        <v>4.3210299999999998E-4</v>
+      </c>
+      <c r="H57" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>0.56000000000000005</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="9"/>
+      <c r="B58" s="5">
+        <v>0.66873400000000005</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2.6446299999999999E-2</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2.79335E-2</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.95688200000000001</v>
+      </c>
+      <c r="G58" s="1">
+        <v>4.3222300000000003E-4</v>
+      </c>
+      <c r="H58" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>0.57000000000000006</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="9"/>
+      <c r="B59" s="5">
+        <v>0.51256100000000004</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2.5118700000000001E-2</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0.20011200000000001</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2.7608299999999999E-2</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.93440599999999996</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4.5248199999999998E-4</v>
+      </c>
+      <c r="H59" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="9"/>
+      <c r="B60" s="5">
+        <v>0.44568099999999999</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3.11249E-2</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0.20011200000000001</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2.7608299999999999E-2</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.93440599999999996</v>
+      </c>
+      <c r="G60" s="1">
+        <v>4.5248199999999998E-4</v>
+      </c>
+      <c r="H60" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>0.59</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="9"/>
+      <c r="B61" s="5">
+        <v>0.84147000000000005</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2.7081999999999998E-2</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0.89993999999999996</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4.9001800000000005E-4</v>
+      </c>
+      <c r="H61" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>0.6</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="9"/>
+      <c r="B62" s="5">
+        <v>0.60770400000000002</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2.5882800000000001E-2</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2.7081999999999998E-2</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.89943700000000004</v>
+      </c>
+      <c r="G62" s="1">
+        <v>4.8919600000000001E-4</v>
+      </c>
+      <c r="H62" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>0.61</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="9"/>
+      <c r="B63" s="5">
+        <v>0.46504600000000001</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2.9315799999999999E-2</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0.20011200000000001</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2.7081999999999998E-2</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.89912599999999998</v>
+      </c>
+      <c r="G63" s="1">
+        <v>4.8868900000000005E-4</v>
+      </c>
+      <c r="H63" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>0.62</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="9"/>
+      <c r="B64" s="5">
+        <v>0.31879800000000003</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.8662499999999999E-2</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0.20005600000000001</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2.6555800000000001E-2</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.86428300000000002</v>
+      </c>
+      <c r="G64" s="1">
+        <v>5.2814799999999999E-4</v>
+      </c>
+      <c r="H64" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>0.63</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="9"/>
+      <c r="B65" s="5">
+        <v>0.31248999999999999</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.02139E-2</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0.200042</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2.6555800000000001E-2</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0.86422100000000002</v>
+      </c>
+      <c r="G65" s="1">
+        <v>5.2803099999999999E-4</v>
+      </c>
+      <c r="H65" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>0.64</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="9"/>
+      <c r="B66" s="5">
+        <v>0.50465099999999996</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2.3921700000000001E-2</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0.20011200000000001</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2.62306E-2</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.84347799999999995</v>
+      </c>
+      <c r="G66" s="1">
+        <v>5.5529799999999997E-4</v>
+      </c>
+      <c r="H66" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>0.65</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="9"/>
+      <c r="B67" s="5">
+        <v>0.72320300000000004</v>
+      </c>
+      <c r="C67" s="1">
+        <v>4.87883E-2</v>
+      </c>
+      <c r="D67" s="5">
+        <v>0.20020199999999999</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2.62306E-2</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.84385699999999997</v>
+      </c>
+      <c r="G67" s="1">
+        <v>5.5604700000000005E-4</v>
+      </c>
+      <c r="H67" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>0.66</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="9"/>
+      <c r="B68" s="5">
+        <v>0.62843599999999999</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1.7632700000000001E-2</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2.62306E-2</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0.84377000000000002</v>
+      </c>
+      <c r="G68" s="1">
+        <v>5.5587400000000004E-4</v>
+      </c>
+      <c r="H68" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>0.67</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="9"/>
+      <c r="B69" s="5">
+        <v>0.33790700000000001</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3.3954999999999999E-2</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0.20005700000000001</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2.5704399999999999E-2</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.80974999999999997</v>
+      </c>
+      <c r="G69" s="1">
+        <v>6.0168699999999995E-4</v>
+      </c>
+      <c r="H69" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>0.68</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="9"/>
+      <c r="B70" s="5">
+        <v>0.97256200000000004</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4.5407599999999999E-2</v>
+      </c>
+      <c r="D70" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2.5704399999999999E-2</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.81070799999999998</v>
+      </c>
+      <c r="G70" s="1">
+        <v>6.0382299999999997E-4</v>
+      </c>
+      <c r="H70" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>0.69000000000000006</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="9"/>
+      <c r="B71" s="5">
+        <v>0.38987100000000002</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.54731E-2</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0.20006699999999999</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2.5379100000000002E-2</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.78942900000000005</v>
+      </c>
+      <c r="G71" s="1">
+        <v>6.3321999999999999E-4</v>
+      </c>
+      <c r="H71" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>0.70000000000000007</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="9"/>
+      <c r="B72" s="5">
+        <v>0.40552899999999997</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1.7292200000000001E-2</v>
+      </c>
+      <c r="D72" s="5">
+        <v>0.20008799999999999</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2.5379100000000002E-2</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0.78951499999999997</v>
+      </c>
+      <c r="G72" s="1">
+        <v>6.3342599999999998E-4</v>
+      </c>
+      <c r="H72" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>0.71</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="9"/>
+      <c r="B73" s="5">
+        <v>0.66099300000000005</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1.1059599999999999E-2</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0.200182</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2.4852900000000001E-2</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.757467</v>
+      </c>
+      <c r="G73" s="1">
+        <v>6.89768E-4</v>
+      </c>
+      <c r="H73" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>0.72</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="9"/>
+      <c r="B74" s="5">
+        <v>0.97116599999999997</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3.1192500000000001E-2</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2.4852900000000001E-2</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.75788900000000003</v>
+      </c>
+      <c r="G74" s="1">
+        <v>6.9092100000000005E-4</v>
+      </c>
+      <c r="H74" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>0.73</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="9"/>
+      <c r="B75" s="5">
+        <v>0.68445999999999996</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2.7855700000000001E-2</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2.43267E-2</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.72572800000000004</v>
+      </c>
+      <c r="G75" s="1">
+        <v>7.5140899999999997E-4</v>
+      </c>
+      <c r="H75" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>0.74</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="9"/>
+      <c r="B76" s="5">
+        <v>0.59584700000000002</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2.7696599999999998E-2</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2.43267E-2</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.72572800000000004</v>
+      </c>
+      <c r="G76" s="1">
+        <v>7.5140899999999997E-4</v>
+      </c>
+      <c r="H76" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>0.75</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="9"/>
+      <c r="B77" s="5">
+        <v>0.95718000000000003</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3.8261700000000003E-2</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2.43267E-2</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.72613399999999995</v>
+      </c>
+      <c r="G77" s="1">
+        <v>7.52671E-4</v>
+      </c>
+      <c r="H77" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>0.76</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="9"/>
+      <c r="B78" s="5">
+        <v>0.73127699999999995</v>
+      </c>
+      <c r="C78" s="1">
+        <v>3.0290399999999999E-2</v>
+      </c>
+      <c r="D78" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2.4001499999999999E-2</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.706453</v>
+      </c>
+      <c r="G78" s="1">
+        <v>7.9297099999999995E-4</v>
+      </c>
+      <c r="H78" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>0.77</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="9"/>
+      <c r="B79" s="5">
+        <v>0.77609700000000004</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1.2487399999999999E-2</v>
+      </c>
+      <c r="D79" s="5">
+        <v>0.20025899999999999</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2.3475200000000002E-2</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.67607700000000004</v>
+      </c>
+      <c r="G79" s="1">
+        <v>8.6750800000000002E-4</v>
+      </c>
+      <c r="H79" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>0.78</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="9"/>
+      <c r="B80" s="5">
+        <v>0.82581800000000005</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3.36932E-2</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E80" s="1">
+        <v>2.3475200000000002E-2</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.67619300000000004</v>
+      </c>
+      <c r="G80" s="1">
+        <v>8.6795500000000001E-4</v>
+      </c>
+      <c r="H80" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>0.79</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="9"/>
+      <c r="B81" s="5">
+        <v>0.340785</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3.1088600000000001E-2</v>
+      </c>
+      <c r="D81" s="5">
+        <v>0.200068</v>
+      </c>
+      <c r="E81" s="1">
+        <v>2.3475200000000002E-2</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.67543399999999998</v>
+      </c>
+      <c r="G81" s="1">
+        <v>8.6503600000000002E-4</v>
+      </c>
+      <c r="H81" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>0.8</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="9"/>
+      <c r="B82" s="5">
+        <v>0.77554000000000001</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3.4353799999999997E-2</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2.2949000000000001E-2</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.64585599999999999</v>
+      </c>
+      <c r="G82" s="1">
+        <v>9.4875099999999996E-4</v>
+      </c>
+      <c r="H82" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>0.81</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="9"/>
+      <c r="B83" s="5">
+        <v>0.920566</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2.0336900000000002E-2</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2.2949000000000001E-2</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.64621799999999996</v>
+      </c>
+      <c r="G83" s="1">
+        <v>9.5034500000000001E-4</v>
+      </c>
+      <c r="H83" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>0.82000000000000006</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="9"/>
+      <c r="B84" s="5">
+        <v>0.66917499999999996</v>
+      </c>
+      <c r="C84" s="1">
+        <v>4.8395399999999998E-2</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0.200183</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2.2623799999999999E-2</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.62768400000000002</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1.0045099999999999E-3</v>
+      </c>
+      <c r="H84" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>0.83000000000000007</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="9"/>
+      <c r="B85" s="5">
+        <v>0.23597899999999999</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1.73367E-2</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0.200013</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2.2097599999999998E-2</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0.59831699999999999</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1.1008599999999999E-3</v>
+      </c>
+      <c r="H85" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>0.84</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="9"/>
+      <c r="B86" s="5">
+        <v>0.361649</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3.1861899999999999E-2</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0.20006399999999999</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2.2097599999999998E-2</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0.59847099999999998</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1.10172E-3</v>
+      </c>
+      <c r="H86" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>0.85</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="9"/>
+      <c r="B87" s="5">
+        <v>0.96467700000000001</v>
+      </c>
+      <c r="C87" s="1">
+        <v>3.3516299999999999E-2</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E87" s="1">
+        <v>2.1772300000000001E-2</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0.58164899999999997</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1.1730499999999999E-3</v>
+      </c>
+      <c r="H87" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>0.86</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="9"/>
+      <c r="B88" s="5">
+        <v>0.70979099999999995</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2.1221299999999998E-2</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2.12461E-2</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0.55356300000000003</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1.29149E-3</v>
+      </c>
+      <c r="H88" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>0.87</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="9"/>
+      <c r="B89" s="5">
+        <v>0.86553000000000002</v>
+      </c>
+      <c r="C89" s="1">
+        <v>2.56949E-2</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E89" s="1">
+        <v>2.12461E-2</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.55387299999999995</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1.2936600000000001E-3</v>
+      </c>
+      <c r="H89" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>0.88</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="9"/>
+      <c r="B90" s="5">
+        <v>0.81512499999999999</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2.6238500000000001E-2</v>
+      </c>
+      <c r="D90" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E90" s="1">
+        <v>2.0719899999999999E-2</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0.52677600000000002</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1.4301699999999999E-3</v>
+      </c>
+      <c r="H90" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>0.89</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="9"/>
+      <c r="B91" s="5">
+        <v>0.89320299999999997</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1.5679499999999999E-2</v>
+      </c>
+      <c r="D91" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2.0394700000000002E-2</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0.51036899999999996</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1.5236E-3</v>
+      </c>
+      <c r="H91" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>0.9</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="9"/>
+      <c r="B92" s="5">
+        <v>0.80214300000000005</v>
+      </c>
+      <c r="C92" s="1">
+        <v>3.2466299999999997E-2</v>
+      </c>
+      <c r="D92" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1.9868400000000001E-2</v>
+      </c>
+      <c r="F92" s="5">
+        <v>0.484371</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1.6915400000000001E-3</v>
+      </c>
+      <c r="H92" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>0.91</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="9"/>
+      <c r="B93" s="5">
+        <v>0.50204300000000002</v>
+      </c>
+      <c r="C93" s="1">
+        <v>4.5608299999999997E-2</v>
+      </c>
+      <c r="D93" s="5">
+        <v>0.200129</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1.9868400000000001E-2</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0.48397499999999999</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1.6873999999999999E-3</v>
+      </c>
+      <c r="H93" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>0.92</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="9"/>
+      <c r="B94" s="5">
+        <v>0.85694199999999998</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1.4184799999999999E-2</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1.93422E-2</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0.45905400000000002</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1.88327E-3</v>
+      </c>
+      <c r="H94" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>0.93</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="9"/>
+      <c r="B95" s="5">
+        <v>0.21146799999999999</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4.44692E-2</v>
+      </c>
+      <c r="D95" s="5">
+        <v>0.200127</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1.8944200000000001E-2</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0.43999100000000002</v>
+      </c>
+      <c r="G95" s="1">
+        <v>2.04148E-3</v>
+      </c>
+      <c r="H95" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>0.94000000000000006</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="9"/>
+      <c r="B96" s="5">
+        <v>0.24645500000000001</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3.2477600000000002E-2</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0.200015</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1.93422E-2</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0.45841500000000002</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1.8754399999999999E-3</v>
+      </c>
+      <c r="H96" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>0.95000000000000007</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="9"/>
+      <c r="B97" s="5">
+        <v>0.93262199999999995</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.7252400000000001E-2</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0.200293</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1.93422E-2</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0.45905400000000002</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1.88327E-3</v>
+      </c>
+      <c r="H97" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>0.96</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="9"/>
+      <c r="B98" s="5">
+        <v>0.478825</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2.1466699999999998E-2</v>
+      </c>
+      <c r="D98" s="5">
+        <v>0.20011200000000001</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1.93422E-2</v>
+      </c>
+      <c r="F98" s="5">
+        <v>0.45863799999999999</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1.87816E-3</v>
+      </c>
+      <c r="H98" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>0.97</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="9"/>
+      <c r="B99" s="5">
+        <v>0.22201899999999999</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2.8093E-2</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0.20001099999999999</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1.93422E-2</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0.45840399999999998</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1.87532E-3</v>
+      </c>
+      <c r="H99" s="9">
+        <v>80</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>0.98</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="9"/>
+      <c r="B100" s="5">
+        <v>0.58822700000000006</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2.9859199999999999E-2</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0.200181</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1.93422E-2</v>
+      </c>
+      <c r="F100" s="5">
+        <v>0.45879700000000001</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1.8801099999999999E-3</v>
+      </c>
+      <c r="H100" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>0.99</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="9"/>
+      <c r="B101" s="5">
+        <v>0.21826799999999999</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4.8564599999999999E-2</v>
+      </c>
+      <c r="D101" s="5">
+        <v>0.20000699999999999</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1.8965800000000001E-2</v>
+      </c>
+      <c r="F101" s="5">
+        <v>0.44072899999999998</v>
+      </c>
+      <c r="G101" s="1">
+        <v>2.0285699999999999E-3</v>
+      </c>
+      <c r="H101" s="9">
+        <v>76</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>1</v>
       </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="10"/>
+      <c r="B102" s="6">
+        <v>0.79724200000000001</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1.98424E-2</v>
+      </c>
+      <c r="D102" s="6">
+        <v>0.200293</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1.93422E-2</v>
+      </c>
+      <c r="F102" s="6">
+        <v>0.45905400000000002</v>
+      </c>
+      <c r="G102" s="2">
+        <v>1.88327E-3</v>
+      </c>
+      <c r="H102" s="10">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/OptimalizationLabs1/proj5_Izworski_Jarek_Klimczyk.xlsx
+++ b/OptimalizationLabs1/proj5_Izworski_Jarek_Klimczyk.xlsx
@@ -3,31 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C637FAB-5A41-4D9E-A485-D4BC9861E2EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225BFAFC-AA54-4DA3-862A-1889F34FD46B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabela 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Tabela 1'!$P$3:$P$103</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Tabela 1'!$Q$3:$Q$103</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Tabela 2'!$F$2:$F$102</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Tabela 2'!$G$2:$G$102</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Tabela 2'!$F$2:$F$102</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Tabela 2'!$G$2:$G$102</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Tabela 2'!$F$2:$F$102</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Tabela 2'!$G$2:$G$102</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Tabela 1'!$K$3:$K$103</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Tabela 1'!$L$3:$L$103</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Tabela 1'!$K$3:$K$103</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Tabela 1'!$L$3:$L$103</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Tabela 1'!$P$3:$P$103</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Tabela 1'!$Q$3:$Q$103</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'Tabela 1'!$F$3:$F$103</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'Tabela 1'!$G$3:$G$103</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Tabela 1'!$P$3:$P$103</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Tabela 1'!$Q$3:$Q$103</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Tabela 2'!$F$2:$F$102</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Tabela 2'!$G$2:$G$102</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Tabela 2'!$F$2:$F$102</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Tabela 2'!$G$2:$G$102</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -957,12 +949,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1087,12 +1079,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1217,12 +1209,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3583,7 +3575,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2893518" y="20417438"/>
+              <a:off x="2893518" y="20416077"/>
               <a:ext cx="4549588" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3661,7 +3653,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8030614" y="20519892"/>
+              <a:off x="8030614" y="20518531"/>
               <a:ext cx="4549589" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3739,7 +3731,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13219739" y="20495880"/>
+              <a:off x="13219739" y="20494519"/>
               <a:ext cx="4549588" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3822,8 +3814,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8472769" y="698966"/>
-              <a:ext cx="4594412" cy="2743200"/>
+              <a:off x="8438031" y="698966"/>
+              <a:ext cx="4625788" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4179,7 +4171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
@@ -9946,8 +9938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
